--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO3.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8325527-678F-4138-BF4D-8207827DD225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F6EF0D-333A-4D04-AAF4-7B9DF4F4BA11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" firstSheet="2" activeTab="11" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="4050" yWindow="2115" windowWidth="42960" windowHeight="15900" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;workbook&gt;SET" sheetId="7" r:id="rId1"/>
@@ -789,7 +789,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="378">
   <si>
     <t>&lt;zlight&gt;DEVEXPORT</t>
   </si>
@@ -1075,9 +1075,6 @@
     <t>&lt;zmain&gt;</t>
   </si>
   <si>
-    <t>DEVEXPORT</t>
-  </si>
-  <si>
     <t>CABEXPORT</t>
   </si>
   <si>
@@ -1889,9 +1886,6 @@
     <t>VSCHEMACable21</t>
   </si>
   <si>
-    <t>Elec238</t>
-  </si>
-  <si>
     <t>DEVICE_VSCHEMES_QF</t>
   </si>
   <si>
@@ -1935,6 +1929,9 @@
   </si>
   <si>
     <t>DEVICE_VSCHEMES_QS</t>
+  </si>
+  <si>
+    <t>ALL</t>
   </si>
 </sst>
 </file>
@@ -4644,10 +4641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9A3CA2-6484-4A78-8C46-2DFDF58AF4E8}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4660,7 +4657,7 @@
         <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4676,7 +4673,7 @@
         <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4692,7 +4689,7 @@
         <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4701,14 +4698,6 @@
       </c>
       <c r="B6" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4934,8 +4923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D8C22C-893A-456C-B6B4-5CEC07C317DD}">
   <dimension ref="C1:EJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+    <sheetView topLeftCell="N7" workbookViewId="0">
+      <selection activeCell="BA25" sqref="BA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4998,18 +4987,18 @@
     </row>
     <row r="4" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D4" s="151" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E4" s="151"/>
       <c r="F4" s="151"/>
       <c r="G4" s="151"/>
       <c r="H4" s="151"/>
       <c r="I4" s="84" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O4" s="84"/>
       <c r="P4" s="151" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="151"/>
       <c r="R4" s="151"/>
@@ -5019,7 +5008,7 @@
     </row>
     <row r="5" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D5" s="145" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E5" s="145"/>
       <c r="F5" s="145"/>
@@ -5029,13 +5018,13 @@
         <v>NMO_Name</v>
       </c>
       <c r="I5" s="82" t="s">
+        <v>287</v>
+      </c>
+      <c r="O5" s="82" t="s">
         <v>288</v>
       </c>
-      <c r="O5" s="82" t="s">
+      <c r="P5" s="146" t="s">
         <v>289</v>
-      </c>
-      <c r="P5" s="146" t="s">
-        <v>290</v>
       </c>
       <c r="Q5" s="146"/>
       <c r="R5" s="146"/>
@@ -5048,22 +5037,22 @@
     </row>
     <row r="6" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D6" s="145" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E6" s="145"/>
       <c r="F6" s="145"/>
       <c r="G6" s="145"/>
       <c r="H6" s="79" t="s">
+        <v>291</v>
+      </c>
+      <c r="I6" s="82" t="s">
         <v>292</v>
-      </c>
-      <c r="I6" s="82" t="s">
-        <v>293</v>
       </c>
       <c r="O6" s="82">
         <v>63</v>
       </c>
       <c r="P6" s="146" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q6" s="146"/>
       <c r="R6" s="146"/>
@@ -5076,7 +5065,7 @@
     </row>
     <row r="7" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D7" s="145" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E7" s="145"/>
       <c r="F7" s="145"/>
@@ -5085,13 +5074,13 @@
         <v>45399</v>
       </c>
       <c r="I7" s="82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O7" s="82">
         <v>32</v>
       </c>
       <c r="P7" s="146" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="146"/>
       <c r="R7" s="146"/>
@@ -5104,22 +5093,22 @@
     </row>
     <row r="8" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="145" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E8" s="145"/>
       <c r="F8" s="145"/>
       <c r="G8" s="145"/>
       <c r="H8" s="79" t="s">
+        <v>298</v>
+      </c>
+      <c r="I8" s="82" t="s">
         <v>299</v>
-      </c>
-      <c r="I8" s="82" t="s">
-        <v>300</v>
       </c>
       <c r="O8" s="82">
         <v>6</v>
       </c>
       <c r="P8" s="148" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q8" s="149"/>
       <c r="R8" s="149"/>
@@ -5131,22 +5120,22 @@
     </row>
     <row r="9" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D9" s="145" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E9" s="145"/>
       <c r="F9" s="145"/>
       <c r="G9" s="145"/>
       <c r="H9" s="79" t="s">
+        <v>302</v>
+      </c>
+      <c r="I9" s="82" t="s">
         <v>303</v>
       </c>
-      <c r="I9" s="82" t="s">
+      <c r="O9" s="82" t="s">
         <v>304</v>
       </c>
-      <c r="O9" s="82" t="s">
-        <v>305</v>
-      </c>
       <c r="P9" s="152" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q9" s="152"/>
       <c r="R9" s="152"/>
@@ -5156,13 +5145,13 @@
     </row>
     <row r="10" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D10" s="145" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E10" s="145"/>
       <c r="F10" s="145"/>
       <c r="G10" s="145"/>
       <c r="I10" s="82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O10" s="82">
         <v>4</v>
@@ -5176,7 +5165,7 @@
     </row>
     <row r="11" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D11" s="145" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E11" s="145"/>
       <c r="F11" s="145"/>
@@ -5185,13 +5174,13 @@
         <v>380</v>
       </c>
       <c r="I11" s="82" t="s">
+        <v>308</v>
+      </c>
+      <c r="O11" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="O11" s="82" t="s">
+      <c r="P11" s="154" t="s">
         <v>310</v>
-      </c>
-      <c r="P11" s="154" t="s">
-        <v>311</v>
       </c>
       <c r="Q11" s="155"/>
       <c r="R11" s="155"/>
@@ -5203,22 +5192,22 @@
     </row>
     <row r="12" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D12" s="145" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E12" s="145"/>
       <c r="F12" s="145"/>
       <c r="G12" s="145"/>
       <c r="H12" s="79" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I12" s="82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O12" s="82" t="s">
+        <v>313</v>
+      </c>
+      <c r="P12" s="153" t="s">
         <v>314</v>
-      </c>
-      <c r="P12" s="153" t="s">
-        <v>315</v>
       </c>
       <c r="Q12" s="153"/>
       <c r="R12" s="153"/>
@@ -5230,18 +5219,18 @@
     </row>
     <row r="13" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="145" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E13" s="145"/>
       <c r="F13" s="145"/>
       <c r="G13" s="145"/>
       <c r="H13" s="79" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I13" s="83"/>
       <c r="O13" s="83"/>
       <c r="P13" s="153" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q13" s="153"/>
       <c r="R13" s="153"/>
@@ -5256,7 +5245,7 @@
     </row>
     <row r="14" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D14" s="145" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E14" s="145"/>
       <c r="F14" s="145"/>
@@ -5268,7 +5257,7 @@
       <c r="I14" s="83"/>
       <c r="O14" s="83"/>
       <c r="P14" s="153" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q14" s="153"/>
       <c r="R14" s="153"/>
@@ -5280,7 +5269,7 @@
     </row>
     <row r="15" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D15" s="145" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E15" s="145"/>
       <c r="F15" s="145"/>
@@ -5290,7 +5279,7 @@
       </c>
       <c r="O15" s="102"/>
       <c r="P15" s="159" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q15" s="159"/>
       <c r="R15" s="159"/>
@@ -5303,7 +5292,7 @@
     </row>
     <row r="18" spans="3:140" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>78</v>
@@ -5318,26 +5307,26 @@
         <v>6</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BM18" s="1"/>
       <c r="BP18" s="1"/>
     </row>
     <row r="20" spans="3:140" x14ac:dyDescent="0.25">
       <c r="CE20" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="CF20" s="77" t="s">
         <v>272</v>
       </c>
-      <c r="CF20" s="77" t="s">
+      <c r="CG20" s="77" t="s">
         <v>273</v>
       </c>
-      <c r="CG20" s="77" t="s">
+      <c r="CH20" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="CH20" s="77" t="s">
+      <c r="CI20" s="77" t="s">
         <v>275</v>
-      </c>
-      <c r="CI20" s="77" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="21" spans="3:140" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5362,7 +5351,7 @@
         <v>59</v>
       </c>
       <c r="CE21" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="CF21" s="1">
         <v>0</v>
@@ -5382,33 +5371,33 @@
     </row>
     <row r="22" spans="3:140" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="139" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" s="143" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="F22" s="126" t="s">
+      <c r="G22" s="143" t="s">
         <v>190</v>
       </c>
-      <c r="G22" s="143" t="s">
+      <c r="H22" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="H22" s="126" t="s">
+      <c r="I22" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="I22" s="126" t="s">
-        <v>193</v>
-      </c>
       <c r="J22" s="128" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K22" s="128"/>
       <c r="L22" s="128"/>
       <c r="M22" s="129" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O22" s="141" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P22" s="142"/>
       <c r="Q22" s="142"/>
@@ -5433,7 +5422,7 @@
       <c r="AH22" s="124"/>
       <c r="AI22" s="125"/>
       <c r="AJ22" s="133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK22" s="134"/>
       <c r="AL22" s="134"/>
@@ -5449,7 +5438,7 @@
       <c r="AV22" s="134"/>
       <c r="AW22" s="135"/>
       <c r="AX22" s="123" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AY22" s="124"/>
       <c r="AZ22" s="124"/>
@@ -5459,7 +5448,7 @@
       <c r="BD22" s="124"/>
       <c r="BE22" s="125"/>
       <c r="BF22" s="136" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BG22" s="137"/>
       <c r="BH22" s="137"/>
@@ -5468,7 +5457,7 @@
       <c r="BK22" s="137"/>
       <c r="BL22" s="138"/>
       <c r="BM22" s="131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BN22" s="132"/>
       <c r="BO22" s="132"/>
@@ -5490,7 +5479,7 @@
         <v>59</v>
       </c>
       <c r="CE22" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="CF22" s="1">
         <v>60</v>
@@ -5505,49 +5494,49 @@
         <v>1</v>
       </c>
       <c r="CJ22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="CK22" t="str">
         <f>H5</f>
         <v>NMO_Name</v>
       </c>
       <c r="CL22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="CM22" t="str">
         <f>H6</f>
         <v>ЩРН-12</v>
       </c>
       <c r="CN22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="CO22" t="e">
         <f ca="1">"Установленная полная мощность, Ру = "&amp;T5&amp;"кВт"</f>
         <v>#VALUE!</v>
       </c>
       <c r="CP22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="CQ22" t="str">
         <f>"Коэффициент спроса, Кс = "&amp;T11</f>
         <v>Коэффициент спроса, Кс = 0,65</v>
       </c>
       <c r="CR22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="CS22" t="e">
         <f ca="1">"Расчетная мощность, Рр = "&amp;T6</f>
         <v>#VALUE!</v>
       </c>
       <c r="CT22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="CU22" t="str">
         <f>"Коэффициент мощности, cosf = "&amp;T8</f>
         <v>Коэффициент мощности, cosf = 0,92</v>
       </c>
       <c r="CV22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="CW22" t="e">
         <f ca="1">"Расчетный ток, Iр = "&amp;T15&amp;"А"</f>
@@ -5565,17 +5554,17 @@
       <c r="H23" s="127"/>
       <c r="I23" s="127"/>
       <c r="J23" s="85" t="s">
+        <v>328</v>
+      </c>
+      <c r="K23" s="85" t="s">
         <v>329</v>
       </c>
-      <c r="K23" s="85" t="s">
+      <c r="L23" s="85" t="s">
         <v>330</v>
-      </c>
-      <c r="L23" s="85" t="s">
-        <v>331</v>
       </c>
       <c r="M23" s="130"/>
       <c r="O23" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P23" s="56" t="s">
         <v>36</v>
@@ -5605,22 +5594,22 @@
         <v>41</v>
       </c>
       <c r="Y23" s="61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z23" s="62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA23" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB23" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC23" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="AB23" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC23" s="63" t="s">
-        <v>123</v>
-      </c>
       <c r="AD23" s="63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AE23" s="63" t="s">
         <v>46</v>
@@ -5632,97 +5621,97 @@
         <v>45</v>
       </c>
       <c r="AH23" s="73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI23" s="70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ23" s="63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AK23" s="63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AL23" s="63" t="s">
         <v>56</v>
       </c>
       <c r="AM23" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN23" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO23" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP23" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AN23" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO23" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="AP23" s="63" t="s">
+      <c r="AQ23" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR23" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="AQ23" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR23" s="63" t="s">
-        <v>136</v>
-      </c>
       <c r="AS23" s="63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AT23" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU23" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV23" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW23" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="AU23" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="AV23" s="63" t="s">
+      <c r="AX23" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="AY23" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="AZ23" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="AW23" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX23" s="63" t="s">
-        <v>332</v>
-      </c>
-      <c r="AY23" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="AZ23" s="73" t="s">
-        <v>183</v>
-      </c>
       <c r="BA23" s="73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BB23" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="BC23" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="BD23" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="BE23" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="BF23" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="BC23" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="BD23" s="73" t="s">
+      <c r="BG23" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH23" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI23" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ23" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="BE23" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="BF23" s="76" t="s">
-        <v>224</v>
-      </c>
-      <c r="BG23" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="BH23" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="BI23" s="76" t="s">
-        <v>223</v>
-      </c>
-      <c r="BJ23" s="76" t="s">
-        <v>220</v>
-      </c>
       <c r="BK23" s="76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BL23" s="76" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BM23" s="131"/>
       <c r="BN23" s="132"/>
@@ -5745,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="DS23" s="122" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="DT23" s="122"/>
       <c r="DU23" s="122"/>
@@ -5756,7 +5745,7 @@
       <c r="DZ23" s="122"/>
       <c r="EA23" s="122"/>
       <c r="EB23" s="122" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="EC23" s="122"/>
       <c r="ED23" s="122"/>
@@ -5769,7 +5758,7 @@
     </row>
     <row r="24" spans="3:140" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D24" s="64" t="str">
         <f>IF('&lt;zlight&gt;DEVEXPORT'!P11=1,'&lt;zlight&gt;DEVEXPORT'!F11,"")</f>
@@ -5952,9 +5941,9 @@
         <f>IF(E24="","","C")</f>
         <v>C</v>
       </c>
-      <c r="BA24" s="72" t="str">
-        <f>IF(E24="","","3")</f>
-        <v>3</v>
+      <c r="BA24" s="72" t="e">
+        <f ca="1">IF(E24="","",IF(P24=380,3,1))</f>
+        <v>#N/A</v>
       </c>
       <c r="BB24" s="72" t="str">
         <f>IF(E24="","","30")</f>
@@ -5970,7 +5959,7 @@
       </c>
       <c r="BE24" t="e">
         <f ca="1">IF(E24="","",BA24&amp;"P,"&amp;AY24&amp;"А,"&amp;AZ24&amp;IF(BB24="","",","&amp;BB24&amp;"мА"))</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="BF24" s="67" t="e">
         <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),MATCH(AH24*AE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),-1)))</f>
@@ -6072,7 +6061,7 @@
         <v>59</v>
       </c>
       <c r="CE24" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CF24" s="1" t="e">
         <f>CC24</f>
@@ -6088,110 +6077,110 @@
         <v>1</v>
       </c>
       <c r="CJ24" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CK24" s="1" t="e">
         <f ca="1">IF(Q24="ABC","BOOLEAN_1","BOOLEAN_0")</f>
         <v>#N/A</v>
       </c>
       <c r="CL24" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="CM24" s="1" t="e">
         <f ca="1">IF(H24&lt;&gt;"","INTEGER_0",IF(BS24=0,IF(BT24=0,"INTEGER_3","INTEGER_"&amp;BT24),"INTEGER_"&amp;BT24))</f>
         <v>#VALUE!</v>
       </c>
       <c r="CN24" s="92" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CO24" s="1" t="str">
         <f t="shared" ref="CO24" ca="1" si="0">IFERROR(_xlfn.IFS(CM24="INTEGER_0","INTEGER_0",CM24="INTEGER_1","INTEGER_0",IF(BU24=1,IF(CB24=1,1,0),0),"INTEGER_1",IF(BP24=1,IF(BU24=1,1,0),0),"INTEGER_2",IF(BP24=0,IF(BU24=1,1,0),0),"INTEGER_0",IF(BU24=1,IF(CB24=2,IF(BQ24=0,IF(BZ24=0,1,0),0),0),0),"INTEGER_2",IF(BU24=1,IF(CB24=2,IF(BQ24=0,IF(BZ24&lt;&gt;0,1,0),0),0),0),"INTEGER_4",IF(BU24=1,IF(CB24=2,IF(BQ24&lt;&gt;0,1,0),0),0),"INTEGER_3",IF(BU24=0,IF(BP24=1,IF(CA24=1,1,0),0),0),"INTEGER_5"),"INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
       <c r="CP24" s="92" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CQ24" s="1" t="str">
         <f t="shared" ref="CQ24" si="1">"INTEGER_0"</f>
         <v>INTEGER_0</v>
       </c>
       <c r="CR24" s="92" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="CS24" s="1" t="str">
         <f t="shared" ref="CS24" ca="1" si="2">IFERROR(_xlfn.IFS(CM24="INTEGER_0","INTEGER_4",CM24="INTEGER_1","INTEGER_4",IF(BP24=1,IF(BU24=1,1,0),0),"INTEGER_2",CO24="INTEGER_5","INTEGER_3"),"INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
       <c r="CT24" s="92" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CU24" s="1" t="str">
         <f ca="1">IFERROR(_xlfn.IFS(BP24=1,"INTEGER_0",I24&lt;&gt;"","INTEGER_0",H24&lt;&gt;"","INTEGER_0",IF(BU24=1,1,0),"INTEGER_0",IF(BP24=0,IF(BU24=0,IF(AJ24="",1,0),0),0),"INTEGER_3",IF(BP24=0,IF(BU24=0,IF(AJ24=INDEX($AJ$24:AJ24,BO24-1),1,0),0),0),"INTEGER_3"),"INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
       <c r="CV24" s="92" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="CW24" s="1" t="str">
         <f t="shared" ref="CW24" si="3">IF(BV24=0,"INTEGER_0","INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
       <c r="CX24" s="92" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="CY24" s="1" t="str">
         <f ca="1">IFERROR(_xlfn.IFS(IF(BP24=1,1,0),"INTEGER_0",I24&lt;&gt;"","INTEGER_5",H24&lt;&gt;"","INTEGER_5",CU24="INTEGER_3","INTEGER_3",IF(BU24=1,IF(BP24=0,1,0),0),"INTEGER_5",IF(AJ24=INDEX($AJ$24:AJ24,BO24-1),1,0),"INTEGER_5"),"INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
       <c r="CZ24" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="DA24" s="1" t="str">
         <f>IF(W24&gt;1,O24&amp;"("&amp;W24&amp;"шт.)",O24)</f>
         <v>NMO_BaseName</v>
       </c>
       <c r="DB24" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="DC24" s="1" t="e">
         <f ca="1">R24</f>
         <v>#VALUE!</v>
       </c>
       <c r="DD24" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="DE24" s="1" t="e">
         <f ca="1">T24</f>
         <v>#VALUE!</v>
       </c>
       <c r="DF24" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="DG24" s="1" t="e">
         <f ca="1">Z24&amp;"\P~"&amp;P24&amp;"V"</f>
         <v>#N/A</v>
       </c>
       <c r="DH24" s="103" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="DI24" s="103" t="str">
         <f>AJ24</f>
         <v>GC_HeadDevice.GC_HDGroup</v>
       </c>
       <c r="DJ24" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="DK24" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="DK24" s="103" t="s">
+      <c r="DL24" s="103" t="s">
         <v>360</v>
       </c>
-      <c r="DL24" s="103" t="s">
+      <c r="DM24" s="103" t="s">
+        <v>359</v>
+      </c>
+      <c r="DN24" s="103" t="s">
         <v>361</v>
-      </c>
-      <c r="DM24" s="103" t="s">
-        <v>360</v>
-      </c>
-      <c r="DN24" s="103" t="s">
-        <v>362</v>
       </c>
       <c r="DO24" s="103" t="e">
         <f ca="1">AK24</f>
@@ -6231,7 +6220,7 @@
         <v>1</v>
       </c>
       <c r="DY24" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="DZ24" s="1" t="e">
         <f ca="1">BC24&amp;"\P"&amp;BD24&amp;"\P"&amp;BE24</f>
@@ -6264,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="EH24" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="EI24" s="1" t="e">
         <f ca="1">BJ24&amp;"\P"&amp;BK24&amp;"\P"&amp;BL24</f>
@@ -6750,7 +6739,7 @@
   <sheetData>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -6771,7 +6760,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:23" ht="90" x14ac:dyDescent="0.25">
@@ -6788,13 +6777,13 @@
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>11</v>
@@ -6815,7 +6804,7 @@
         <v>14</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>16</v>
@@ -6827,13 +6816,13 @@
         <v>18</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="2:23" ht="45" x14ac:dyDescent="0.25">
@@ -6864,13 +6853,13 @@
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>4</v>
@@ -7137,7 +7126,7 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -7222,7 +7211,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -7253,7 +7242,7 @@
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -7265,7 +7254,7 @@
         <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -7298,12 +7287,12 @@
       <c r="B3" s="107"/>
       <c r="C3" s="108"/>
       <c r="F3" s="109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" s="110"/>
       <c r="H3" s="111"/>
       <c r="K3" s="114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L3" s="115"/>
       <c r="M3" s="115"/>
@@ -7383,208 +7372,208 @@
         <v>220</v>
       </c>
       <c r="F4" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="H4" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="47" t="s">
-        <v>110</v>
-      </c>
       <c r="K4" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="L4" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="M4" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="N4" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="R4" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="T4" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="U4" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="N4" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="O4" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="P4" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q4" s="53" t="s">
+      <c r="V4" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="W4" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="X4" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y4" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z4" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA4" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="R4" s="53" t="s">
-        <v>366</v>
-      </c>
-      <c r="S4" s="53" t="s">
-        <v>367</v>
-      </c>
-      <c r="T4" s="53" t="s">
-        <v>368</v>
-      </c>
-      <c r="U4" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="V4" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="W4" s="53" t="s">
+      <c r="AB4" s="53" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC4" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD4" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE4" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="X4" s="53" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y4" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z4" s="53" t="s">
+      <c r="AF4" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG4" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH4" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI4" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ4" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK4" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL4" s="53" t="s">
+        <v>369</v>
+      </c>
+      <c r="AM4" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="AN4" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="AO4" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP4" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ4" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR4" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="AA4" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB4" s="53" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC4" s="53" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD4" s="53" t="s">
-        <v>377</v>
-      </c>
-      <c r="AE4" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF4" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG4" s="53" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH4" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI4" s="53" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ4" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="AK4" s="53" t="s">
+      <c r="AS4" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="AT4" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU4" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="AL4" s="53" t="s">
-        <v>371</v>
-      </c>
-      <c r="AM4" s="53" t="s">
-        <v>372</v>
-      </c>
-      <c r="AN4" s="53" t="s">
-        <v>373</v>
-      </c>
-      <c r="AO4" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="AP4" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ4" s="53" t="s">
+      <c r="AV4" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="AR4" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="AS4" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="AT4" s="53" t="s">
+      <c r="AW4" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX4" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY4" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="AU4" s="53" t="s">
+      <c r="AZ4" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="BA4" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="BB4" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="AV4" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW4" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX4" s="53" t="s">
+      <c r="BC4" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="AY4" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="AZ4" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="BA4" s="53" t="s">
+      <c r="BD4" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE4" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF4" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="BB4" s="53" t="s">
+      <c r="BG4" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="BH4" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="BI4" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="BC4" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="BD4" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="BE4" s="53" t="s">
+      <c r="BJ4" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="BF4" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="BG4" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="BH4" s="53" t="s">
+      <c r="BK4" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="BL4" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="BM4" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="BI4" s="53" t="s">
+      <c r="BN4" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="BO4" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="BP4" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="BJ4" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="BK4" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="BL4" s="53" t="s">
+      <c r="BQ4" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="BM4" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="BN4" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="BO4" s="53" t="s">
+      <c r="BR4" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="BS4" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="BT4" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="BP4" s="53" t="s">
+      <c r="BU4" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="BV4" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="BW4" s="53" t="s">
         <v>270</v>
-      </c>
-      <c r="BQ4" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="BR4" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="BS4" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="BT4" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="BU4" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="BV4" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="BW4" s="53" t="s">
-        <v>271</v>
       </c>
       <c r="BX4" s="53"/>
     </row>
@@ -7890,7 +7879,7 @@
         <v>2E-3</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -7898,7 +7887,7 @@
         <v>2</v>
       </c>
       <c r="R6" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S6" s="104">
         <v>12.5</v>
@@ -7916,17 +7905,17 @@
         <v>0</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10">
         <v>1</v>
       </c>
       <c r="AB6" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC6" s="105">
         <v>12.5</v>
@@ -7944,10 +7933,10 @@
         <v>0</v>
       </c>
       <c r="AH6" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI6" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ6" s="10">
         <v>0</v>
@@ -7956,7 +7945,7 @@
         <v>3</v>
       </c>
       <c r="AL6" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM6" s="105">
         <v>12.5</v>
@@ -7974,10 +7963,10 @@
         <v>0</v>
       </c>
       <c r="AR6" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AS6" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AT6" s="10">
         <v>4</v>
@@ -7993,10 +7982,10 @@
         <v>0</v>
       </c>
       <c r="AY6" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AZ6" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BA6" s="10"/>
       <c r="BB6" s="10">
@@ -8012,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="BF6" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG6" s="10" t="str">
         <f t="shared" ref="BG6:BG36" si="1">"ТТИ-А "&amp;BC6&amp;"/5А 5ВА 0,5S"</f>
@@ -8031,10 +8020,10 @@
         <v>0</v>
       </c>
       <c r="BM6" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BN6" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BO6" s="10"/>
       <c r="BP6" s="10">
@@ -8050,10 +8039,10 @@
         <v>0</v>
       </c>
       <c r="BT6" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU6" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="BU6" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="BV6" s="10"/>
       <c r="BW6" s="10">
@@ -8081,7 +8070,7 @@
         <v>2E-3</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -8089,7 +8078,7 @@
         <v>2</v>
       </c>
       <c r="R7" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S7" s="104">
         <v>12.5</v>
@@ -8107,17 +8096,17 @@
         <v>0</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10">
         <v>1</v>
       </c>
       <c r="AB7" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC7" s="105">
         <v>12.5</v>
@@ -8135,10 +8124,10 @@
         <v>0</v>
       </c>
       <c r="AH7" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI7" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ7" s="10">
         <v>0</v>
@@ -8147,7 +8136,7 @@
         <v>3</v>
       </c>
       <c r="AL7" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM7" s="105">
         <v>12.5</v>
@@ -8165,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="AR7" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AS7" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AT7" s="10">
         <v>4</v>
@@ -8184,10 +8173,10 @@
         <v>0</v>
       </c>
       <c r="AY7" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AZ7" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BA7" s="10"/>
       <c r="BB7" s="10">
@@ -8203,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG7" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8223,10 +8212,10 @@
         <v>0</v>
       </c>
       <c r="BM7" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BN7" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BO7" s="10"/>
       <c r="BP7" s="10">
@@ -8242,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="BT7" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU7" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="BU7" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10">
@@ -8273,7 +8262,7 @@
         <v>0.05</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -8281,7 +8270,7 @@
         <v>2</v>
       </c>
       <c r="R8" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S8" s="104">
         <v>12.5</v>
@@ -8299,17 +8288,17 @@
         <v>0</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z8" s="10"/>
       <c r="AA8" s="10">
         <v>1</v>
       </c>
       <c r="AB8" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC8" s="105">
         <v>12.5</v>
@@ -8327,10 +8316,10 @@
         <v>0</v>
       </c>
       <c r="AH8" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI8" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ8" s="10">
         <v>0</v>
@@ -8339,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AL8" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM8" s="105">
         <v>12.5</v>
@@ -8357,10 +8346,10 @@
         <v>0</v>
       </c>
       <c r="AR8" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AS8" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AT8" s="10">
         <v>4</v>
@@ -8376,10 +8365,10 @@
         <v>0</v>
       </c>
       <c r="AY8" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AZ8" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BA8" s="10"/>
       <c r="BB8" s="10">
@@ -8395,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG8" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8428,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="BT8" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU8" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="BU8" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10">
@@ -8463,7 +8452,7 @@
         <v>0.06</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -8471,7 +8460,7 @@
         <v>2</v>
       </c>
       <c r="R9" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S9" s="104">
         <v>12.5</v>
@@ -8489,17 +8478,17 @@
         <v>0</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10">
         <v>1</v>
       </c>
       <c r="AB9" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC9" s="105">
         <v>12.5</v>
@@ -8517,10 +8506,10 @@
         <v>0</v>
       </c>
       <c r="AH9" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI9" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ9" s="10">
         <v>0</v>
@@ -8529,7 +8518,7 @@
         <v>3</v>
       </c>
       <c r="AL9" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM9" s="105">
         <v>12.5</v>
@@ -8547,10 +8536,10 @@
         <v>0</v>
       </c>
       <c r="AR9" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AS9" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AT9" s="10">
         <v>4</v>
@@ -8566,10 +8555,10 @@
         <v>0</v>
       </c>
       <c r="AY9" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AZ9" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BA9" s="10"/>
       <c r="BB9" s="10">
@@ -8585,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="BF9" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG9" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8618,10 +8607,10 @@
         <v>0</v>
       </c>
       <c r="BT9" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU9" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="BU9" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="BV9" s="10"/>
       <c r="BW9" s="10">
@@ -8631,10 +8620,10 @@
     </row>
     <row r="10" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="36">
         <v>2000</v>
@@ -8655,7 +8644,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
@@ -8663,7 +8652,7 @@
         <v>2</v>
       </c>
       <c r="R10" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S10" s="104">
         <v>12.5</v>
@@ -8681,17 +8670,17 @@
         <v>0</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10">
         <v>1</v>
       </c>
       <c r="AB10" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC10" s="105">
         <v>12.5</v>
@@ -8709,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="AH10" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI10" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ10" s="10">
         <v>0</v>
@@ -8721,7 +8710,7 @@
         <v>3</v>
       </c>
       <c r="AL10" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM10" s="105">
         <v>12.5</v>
@@ -8739,10 +8728,10 @@
         <v>0</v>
       </c>
       <c r="AR10" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AS10" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AT10" s="10">
         <v>4</v>
@@ -8758,10 +8747,10 @@
         <v>0</v>
       </c>
       <c r="AY10" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AZ10" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BA10" s="10"/>
       <c r="BB10" s="10">
@@ -8777,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="BF10" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG10" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8810,10 +8799,10 @@
         <v>0</v>
       </c>
       <c r="BT10" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU10" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="BU10" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="BV10" s="10"/>
       <c r="BW10" s="10">
@@ -8823,10 +8812,10 @@
     </row>
     <row r="11" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" s="36">
         <v>1600</v>
@@ -8847,7 +8836,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -8855,7 +8844,7 @@
         <v>2</v>
       </c>
       <c r="R11" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S11" s="104">
         <v>12.5</v>
@@ -8873,17 +8862,17 @@
         <v>0</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10">
         <v>1</v>
       </c>
       <c r="AB11" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC11" s="105">
         <v>12.5</v>
@@ -8901,10 +8890,10 @@
         <v>0</v>
       </c>
       <c r="AH11" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI11" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ11" s="10">
         <v>0</v>
@@ -8913,7 +8902,7 @@
         <v>3</v>
       </c>
       <c r="AL11" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM11" s="105">
         <v>12.5</v>
@@ -8931,10 +8920,10 @@
         <v>0</v>
       </c>
       <c r="AR11" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AS11" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AT11" s="10">
         <v>4</v>
@@ -8950,10 +8939,10 @@
         <v>0</v>
       </c>
       <c r="AY11" s="81" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AZ11" s="81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BA11" s="10"/>
       <c r="BB11" s="10"/>
@@ -8967,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="BF11" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG11" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9000,10 +8989,10 @@
         <v>0</v>
       </c>
       <c r="BT11" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU11" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="BU11" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="BV11" s="10"/>
       <c r="BW11" s="10">
@@ -9013,10 +9002,10 @@
     </row>
     <row r="12" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="36">
         <v>1250</v>
@@ -9037,7 +9026,7 @@
         <v>0.08</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -9045,7 +9034,7 @@
         <v>2</v>
       </c>
       <c r="R12" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S12" s="104">
         <v>12.5</v>
@@ -9063,17 +9052,17 @@
         <v>0</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10">
         <v>1</v>
       </c>
       <c r="AB12" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC12" s="105">
         <v>12.5</v>
@@ -9091,10 +9080,10 @@
         <v>0</v>
       </c>
       <c r="AH12" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI12" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ12" s="10">
         <v>0</v>
@@ -9103,7 +9092,7 @@
         <v>3</v>
       </c>
       <c r="AL12" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM12" s="105">
         <v>12.5</v>
@@ -9121,10 +9110,10 @@
         <v>0</v>
       </c>
       <c r="AR12" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AS12" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AT12" s="10">
         <v>4</v>
@@ -9140,10 +9129,10 @@
         <v>0</v>
       </c>
       <c r="AY12" s="81" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AZ12" s="81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BA12" s="10"/>
       <c r="BB12" s="10"/>
@@ -9157,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="BF12" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG12" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9190,10 +9179,10 @@
         <v>0</v>
       </c>
       <c r="BT12" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU12" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="BU12" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="BV12" s="10"/>
       <c r="BW12" s="10">
@@ -9203,10 +9192,10 @@
     </row>
     <row r="13" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13" s="36">
         <v>1000</v>
@@ -9227,7 +9216,7 @@
         <v>0.09</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -9235,7 +9224,7 @@
         <v>2</v>
       </c>
       <c r="R13" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S13" s="104">
         <v>12.5</v>
@@ -9257,7 +9246,7 @@
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC13" s="105">
         <v>12.5</v>
@@ -9275,10 +9264,10 @@
         <v>0</v>
       </c>
       <c r="AH13" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI13" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ13" s="10">
         <v>0</v>
@@ -9287,7 +9276,7 @@
         <v>3</v>
       </c>
       <c r="AL13" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM13" s="105">
         <v>12.5</v>
@@ -9305,10 +9294,10 @@
         <v>0</v>
       </c>
       <c r="AR13" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AS13" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AT13" s="10">
         <v>4</v>
@@ -9337,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="BF13" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG13" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9370,10 +9359,10 @@
         <v>0</v>
       </c>
       <c r="BT13" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU13" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="BU13" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="BV13" s="10"/>
       <c r="BW13" s="10">
@@ -9401,7 +9390,7 @@
         <v>0.1</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -9409,7 +9398,7 @@
         <v>2</v>
       </c>
       <c r="R14" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S14" s="104">
         <v>12.5</v>
@@ -9431,7 +9420,7 @@
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
       <c r="AB14" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC14" s="105">
         <v>12.5</v>
@@ -9449,10 +9438,10 @@
         <v>0</v>
       </c>
       <c r="AH14" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI14" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ14" s="10">
         <v>0</v>
@@ -9461,7 +9450,7 @@
         <v>3</v>
       </c>
       <c r="AL14" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM14" s="105">
         <v>12.5</v>
@@ -9505,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="BF14" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG14" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9538,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="BT14" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU14" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="BU14" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="BV14" s="10"/>
       <c r="BW14" s="10">
@@ -9569,7 +9558,7 @@
         <v>0.115</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -9577,7 +9566,7 @@
         <v>2</v>
       </c>
       <c r="R15" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S15" s="104">
         <v>12.5</v>
@@ -9599,7 +9588,7 @@
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
       <c r="AB15" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC15" s="105">
         <v>12.5</v>
@@ -9617,10 +9606,10 @@
         <v>0</v>
       </c>
       <c r="AH15" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI15" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ15" s="10">
         <v>0</v>
@@ -9629,7 +9618,7 @@
         <v>3</v>
       </c>
       <c r="AL15" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM15" s="105">
         <v>12.5</v>
@@ -9673,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="BF15" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG15" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9706,10 +9695,10 @@
         <v>0</v>
       </c>
       <c r="BT15" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU15" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="BU15" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="BV15" s="10"/>
       <c r="BW15" s="10">
@@ -9737,7 +9726,7 @@
         <v>0.13</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -9745,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="R16" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S16" s="104">
         <v>12.5</v>
@@ -9767,7 +9756,7 @@
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
       <c r="AB16" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC16" s="105">
         <v>12.5</v>
@@ -9795,7 +9784,7 @@
       </c>
       <c r="AK16" s="10"/>
       <c r="AL16" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM16" s="105">
         <v>12.5</v>
@@ -9839,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="BF16" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG16" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9872,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="BT16" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU16" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="BU16" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10">
@@ -9903,7 +9892,7 @@
         <v>0.01</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -9911,7 +9900,7 @@
         <v>2</v>
       </c>
       <c r="R17" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S17" s="104">
         <v>12.5</v>
@@ -9933,7 +9922,7 @@
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC17" s="105">
         <v>12.5</v>
@@ -9961,7 +9950,7 @@
       </c>
       <c r="AK17" s="10"/>
       <c r="AL17" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM17" s="105">
         <v>12.5</v>
@@ -10005,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="BF17" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG17" s="10" t="str">
         <f t="shared" si="1"/>
@@ -10038,10 +10027,10 @@
         <v>0</v>
       </c>
       <c r="BT17" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU17" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="BU17" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10">
@@ -10069,7 +10058,7 @@
         <v>0.255</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -10077,7 +10066,7 @@
         <v>2</v>
       </c>
       <c r="R18" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S18" s="104">
         <v>12.5</v>
@@ -10099,7 +10088,7 @@
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC18" s="105">
         <v>12.5</v>
@@ -10127,7 +10116,7 @@
       </c>
       <c r="AK18" s="10"/>
       <c r="AL18" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM18" s="105">
         <v>12.5</v>
@@ -10171,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="BF18" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG18" s="10" t="str">
         <f t="shared" si="1"/>
@@ -10204,10 +10193,10 @@
         <v>0</v>
       </c>
       <c r="BT18" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU18" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="BU18" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="BV18" s="10"/>
       <c r="BW18" s="10">
@@ -10235,7 +10224,7 @@
         <v>0.5</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -10243,7 +10232,7 @@
         <v>2</v>
       </c>
       <c r="R19" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S19" s="104">
         <v>12.5</v>
@@ -10265,7 +10254,7 @@
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC19" s="105">
         <v>12.5</v>
@@ -10293,7 +10282,7 @@
       </c>
       <c r="AK19" s="10"/>
       <c r="AL19" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM19" s="105">
         <v>12.5</v>
@@ -10337,7 +10326,7 @@
         <v>0</v>
       </c>
       <c r="BF19" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG19" s="10" t="str">
         <f t="shared" si="1"/>
@@ -10370,10 +10359,10 @@
         <v>0</v>
       </c>
       <c r="BT19" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU19" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="BU19" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="BV19" s="10"/>
       <c r="BW19" s="10">
@@ -10401,7 +10390,7 @@
         <v>0.7</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -10409,7 +10398,7 @@
         <v>2</v>
       </c>
       <c r="R20" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S20" s="104">
         <v>12.5</v>
@@ -10431,7 +10420,7 @@
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
       <c r="AB20" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC20" s="105">
         <v>12.5</v>
@@ -10459,7 +10448,7 @@
       </c>
       <c r="AK20" s="10"/>
       <c r="AL20" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM20" s="105">
         <v>12.5</v>
@@ -10503,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="BF20" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG20" s="10" t="str">
         <f t="shared" si="1"/>
@@ -10536,10 +10525,10 @@
         <v>0</v>
       </c>
       <c r="BT20" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU20" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="BU20" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="BV20" s="10"/>
       <c r="BW20" s="10">
@@ -10567,7 +10556,7 @@
         <v>0.95</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -10575,7 +10564,7 @@
         <v>2</v>
       </c>
       <c r="R21" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S21" s="104">
         <v>12.5</v>
@@ -10597,7 +10586,7 @@
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
       <c r="AB21" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC21" s="105">
         <v>12.5</v>
@@ -10625,7 +10614,7 @@
       </c>
       <c r="AK21" s="10"/>
       <c r="AL21" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM21" s="105">
         <v>12.5</v>
@@ -10669,7 +10658,7 @@
         <v>0</v>
       </c>
       <c r="BF21" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG21" s="10" t="str">
         <f t="shared" si="1"/>
@@ -10702,10 +10691,10 @@
         <v>0</v>
       </c>
       <c r="BT21" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU21" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="BU21" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="BV21" s="10"/>
       <c r="BW21" s="10">
@@ -10733,7 +10722,7 @@
         <v>1.2</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
@@ -10741,7 +10730,7 @@
         <v>2</v>
       </c>
       <c r="R22" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S22" s="104">
         <v>12.5</v>
@@ -10763,7 +10752,7 @@
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC22" s="105">
         <v>12.5</v>
@@ -10791,7 +10780,7 @@
       </c>
       <c r="AK22" s="10"/>
       <c r="AL22" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM22" s="105">
         <v>12.5</v>
@@ -10835,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="BF22" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG22" s="10" t="str">
         <f t="shared" si="1"/>
@@ -10895,7 +10884,7 @@
         <v>1.6</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -10903,7 +10892,7 @@
         <v>2</v>
       </c>
       <c r="R23" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S23" s="104">
         <v>12.5</v>
@@ -10925,7 +10914,7 @@
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC23" s="105">
         <v>12.5</v>
@@ -10953,7 +10942,7 @@
       </c>
       <c r="AK23" s="10"/>
       <c r="AL23" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM23" s="105">
         <v>12.5</v>
@@ -10997,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="BF23" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG23" s="10" t="str">
         <f t="shared" si="1"/>
@@ -11057,17 +11046,17 @@
         <v>2</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="10">
         <v>2</v>
       </c>
       <c r="R24" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S24" s="104">
         <v>12.5</v>
@@ -11089,7 +11078,7 @@
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC24" s="105">
         <v>12.5</v>
@@ -11117,7 +11106,7 @@
       </c>
       <c r="AK24" s="10"/>
       <c r="AL24" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM24" s="105">
         <v>12.5</v>
@@ -11161,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="BF24" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG24" s="10" t="str">
         <f t="shared" si="1"/>
@@ -11221,17 +11210,17 @@
         <v>4.5</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P25" s="10"/>
       <c r="Q25" s="10">
         <v>2</v>
       </c>
       <c r="R25" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S25" s="104">
         <v>12.5</v>
@@ -11253,7 +11242,7 @@
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC25" s="105">
         <v>12.5</v>
@@ -11281,7 +11270,7 @@
       </c>
       <c r="AK25" s="10"/>
       <c r="AL25" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM25" s="105">
         <v>12.5</v>
@@ -11325,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="BF25" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG25" s="10" t="str">
         <f t="shared" si="1"/>
@@ -11385,17 +11374,17 @@
         <v>7</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P26" s="10"/>
       <c r="Q26" s="10">
         <v>2</v>
       </c>
       <c r="R26" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S26" s="104">
         <v>12.5</v>
@@ -11417,7 +11406,7 @@
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC26" s="105">
         <v>12.5</v>
@@ -11445,7 +11434,7 @@
       </c>
       <c r="AK26" s="10"/>
       <c r="AL26" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM26" s="105">
         <v>12.5</v>
@@ -11489,7 +11478,7 @@
         <v>0</v>
       </c>
       <c r="BF26" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG26" s="10" t="str">
         <f t="shared" si="1"/>
@@ -11549,17 +11538,17 @@
         <v>9.5</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P27" s="10"/>
       <c r="Q27" s="10">
         <v>2</v>
       </c>
       <c r="R27" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S27" s="104">
         <v>12.5</v>
@@ -11581,7 +11570,7 @@
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
       <c r="AB27" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC27" s="105">
         <v>12.5</v>
@@ -11609,7 +11598,7 @@
       </c>
       <c r="AK27" s="10"/>
       <c r="AL27" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM27" s="105">
         <v>12.5</v>
@@ -11653,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="BF27" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG27" s="10" t="str">
         <f t="shared" si="1"/>
@@ -11713,17 +11702,17 @@
         <v>12</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="10">
         <v>2</v>
       </c>
       <c r="R28" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S28" s="104">
         <v>12.5</v>
@@ -11745,7 +11734,7 @@
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
       <c r="AB28" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC28" s="105">
         <v>12.5</v>
@@ -11773,7 +11762,7 @@
       </c>
       <c r="AK28" s="10"/>
       <c r="AL28" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM28" s="105">
         <v>12.5</v>
@@ -11817,7 +11806,7 @@
         <v>0</v>
       </c>
       <c r="BF28" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG28" s="10" t="str">
         <f t="shared" si="1"/>
@@ -11877,17 +11866,17 @@
         <v>14.5</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P29" s="10"/>
       <c r="Q29" s="10">
         <v>2</v>
       </c>
       <c r="R29" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S29" s="104">
         <v>12.5</v>
@@ -11909,7 +11898,7 @@
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
       <c r="AB29" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC29" s="105">
         <v>12.5</v>
@@ -11937,7 +11926,7 @@
       </c>
       <c r="AK29" s="10"/>
       <c r="AL29" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM29" s="105">
         <v>12.5</v>
@@ -11981,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="BF29" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG29" s="10" t="str">
         <f t="shared" si="1"/>
@@ -12041,17 +12030,17 @@
         <v>17</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P30" s="10"/>
       <c r="Q30" s="10">
         <v>2</v>
       </c>
       <c r="R30" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S30" s="104">
         <v>12.5</v>
@@ -12073,7 +12062,7 @@
       <c r="Z30" s="10"/>
       <c r="AA30" s="10"/>
       <c r="AB30" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC30" s="105">
         <v>12.5</v>
@@ -12101,7 +12090,7 @@
       </c>
       <c r="AK30" s="10"/>
       <c r="AL30" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM30" s="105">
         <v>12.5</v>
@@ -12145,7 +12134,7 @@
         <v>0</v>
       </c>
       <c r="BF30" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG30" s="10" t="str">
         <f t="shared" si="1"/>
@@ -12205,17 +12194,17 @@
         <v>22</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P31" s="10"/>
       <c r="Q31" s="10">
         <v>2</v>
       </c>
       <c r="R31" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S31" s="104">
         <v>12.5</v>
@@ -12237,7 +12226,7 @@
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC31" s="105">
         <v>12.5</v>
@@ -12265,7 +12254,7 @@
       </c>
       <c r="AK31" s="10"/>
       <c r="AL31" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM31" s="105">
         <v>12.5</v>
@@ -12309,7 +12298,7 @@
         <v>0</v>
       </c>
       <c r="BF31" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG31" s="10" t="str">
         <f t="shared" si="1"/>
@@ -12369,17 +12358,17 @@
         <v>24.5</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P32" s="10"/>
       <c r="Q32" s="10">
         <v>2</v>
       </c>
       <c r="R32" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S32" s="104">
         <v>12.5</v>
@@ -12401,7 +12390,7 @@
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
       <c r="AB32" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC32" s="105">
         <v>12.5</v>
@@ -12429,7 +12418,7 @@
       </c>
       <c r="AK32" s="10"/>
       <c r="AL32" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM32" s="105">
         <v>12.5</v>
@@ -12473,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="BF32" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG32" s="10" t="str">
         <f t="shared" si="1"/>
@@ -12533,17 +12522,17 @@
         <v>27</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P33" s="10"/>
       <c r="Q33" s="10">
         <v>2</v>
       </c>
       <c r="R33" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S33" s="104">
         <v>12.5</v>
@@ -12565,7 +12554,7 @@
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
       <c r="AB33" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC33" s="105">
         <v>12.5</v>
@@ -12593,7 +12582,7 @@
       </c>
       <c r="AK33" s="10"/>
       <c r="AL33" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM33" s="105">
         <v>12.5</v>
@@ -12637,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="BF33" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG33" s="10" t="str">
         <f t="shared" si="1"/>
@@ -12697,17 +12686,17 @@
         <v>29.5</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P34" s="10"/>
       <c r="Q34" s="10">
         <v>2</v>
       </c>
       <c r="R34" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S34" s="104">
         <v>12.5</v>
@@ -12729,7 +12718,7 @@
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
       <c r="AB34" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC34" s="105">
         <v>12.5</v>
@@ -12757,7 +12746,7 @@
       </c>
       <c r="AK34" s="10"/>
       <c r="AL34" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM34" s="105">
         <v>12.5</v>
@@ -12801,7 +12790,7 @@
         <v>0</v>
       </c>
       <c r="BF34" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG34" s="10" t="str">
         <f t="shared" si="1"/>
@@ -12861,17 +12850,17 @@
         <v>32</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P35" s="10"/>
       <c r="Q35" s="10">
         <v>2</v>
       </c>
       <c r="R35" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S35" s="104">
         <v>12.5</v>
@@ -12893,7 +12882,7 @@
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
       <c r="AB35" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC35" s="105">
         <v>12.5</v>
@@ -12921,7 +12910,7 @@
       </c>
       <c r="AK35" s="10"/>
       <c r="AL35" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM35" s="105">
         <v>12.5</v>
@@ -12965,7 +12954,7 @@
         <v>0</v>
       </c>
       <c r="BF35" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG35" s="10" t="str">
         <f t="shared" si="1"/>
@@ -13025,17 +13014,17 @@
         <v>33.25</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P36" s="10"/>
       <c r="Q36" s="10">
         <v>2</v>
       </c>
       <c r="R36" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S36" s="104">
         <v>12.5</v>
@@ -13057,7 +13046,7 @@
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
       <c r="AB36" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC36" s="105">
         <v>12.5</v>
@@ -13085,7 +13074,7 @@
       </c>
       <c r="AK36" s="10"/>
       <c r="AL36" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM36" s="105">
         <v>12.5</v>
@@ -13129,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="BF36" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG36" s="10" t="str">
         <f t="shared" si="1"/>
@@ -13180,17 +13169,17 @@
         <v>34.5</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P37" s="10"/>
       <c r="Q37" s="10">
         <v>2</v>
       </c>
       <c r="R37" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S37" s="104">
         <v>12.5</v>
@@ -13212,7 +13201,7 @@
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
       <c r="AB37" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC37" s="105">
         <v>12.5</v>
@@ -13240,7 +13229,7 @@
       </c>
       <c r="AK37" s="10"/>
       <c r="AL37" s="105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AM37" s="105">
         <v>12.5</v>
@@ -13284,7 +13273,7 @@
         <v>0</v>
       </c>
       <c r="BF37" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG37" s="10" t="str">
         <f>"ТТИ-А "&amp;BC37&amp;"/5А 5ВА 0,5S"</f>
@@ -13459,20 +13448,20 @@
     <row r="41" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F42" s="109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G42" s="110"/>
       <c r="H42" s="111"/>
     </row>
     <row r="43" spans="6:76" ht="31.5" x14ac:dyDescent="0.25">
       <c r="F43" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="G43" s="46" t="s">
+      <c r="H43" s="47" t="s">
         <v>109</v>
-      </c>
-      <c r="H43" s="47" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="44" spans="6:76" x14ac:dyDescent="0.25">
@@ -13526,7 +13515,7 @@
     </row>
     <row r="61" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H61">
         <f>INDEX(BD!$AF$7:$AF$11974,MATCH(BQ24,BD!$AF$7:$AF$11974,-1))</f>
@@ -13703,7 +13692,7 @@
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="115"/>
       <c r="D2" s="115"/>
@@ -13740,108 +13729,108 @@
     </row>
     <row r="3" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="E3" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="F3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="G3" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="H3" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="I3" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="J3" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="K3" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="L3" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="M3" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="N3" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="O3" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="P3" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="P3" s="53" t="s">
+      <c r="Q3" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="Q3" s="53" t="s">
+      <c r="R3" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="R3" s="53" t="s">
+      <c r="S3" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="T3" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="T3" s="53" t="s">
+      <c r="U3" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="U3" s="53" t="s">
+      <c r="V3" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="V3" s="53" t="s">
+      <c r="W3" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="W3" s="53" t="s">
+      <c r="X3" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="X3" s="53" t="s">
+      <c r="Y3" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="Y3" s="53" t="s">
+      <c r="Z3" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="Z3" s="53" t="s">
+      <c r="AA3" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="AA3" s="53" t="s">
+      <c r="AB3" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="AB3" s="53" t="s">
+      <c r="AC3" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="AC3" s="53" t="s">
+      <c r="AD3" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="AD3" s="53" t="s">
+      <c r="AE3" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="AE3" s="53" t="s">
+      <c r="AF3" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="AF3" s="53" t="s">
+      <c r="AG3" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="AG3" s="53" t="s">
+      <c r="AH3" s="53" t="s">
         <v>176</v>
-      </c>
-      <c r="AH3" s="53" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="55" t="str">
         <f>ADDRESS(ROW()+1,COLUMN())&amp;":"&amp;ADDRESS(100,COLUMN())</f>
@@ -13977,25 +13966,25 @@
         <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" s="10">
         <v>100000</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J5" s="10">
         <v>100000</v>
@@ -14004,70 +13993,70 @@
         <v>0</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N5" s="10">
         <v>100000</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R5" s="10">
         <v>100000</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V5" s="10">
         <v>100000</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z5" s="10">
         <v>100000</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AC5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD5" s="10">
         <v>100000</v>
       </c>
       <c r="AE5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH5" s="10">
         <v>100000</v>
@@ -14130,52 +14119,52 @@
         <v>12.600999999999999</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD6" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE6" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF6" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH6" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.25">
@@ -14678,7 +14667,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="117" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" s="117"/>
       <c r="D1" s="117"/>
@@ -14700,10 +14689,10 @@
     <row r="2" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
       <c r="B2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="118" t="s">
         <v>101</v>
-      </c>
-      <c r="C2" s="118" t="s">
-        <v>102</v>
       </c>
       <c r="D2" s="118"/>
       <c r="E2" s="118"/>
@@ -14776,10 +14765,10 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="26">
         <v>4.5</v>
@@ -14885,10 +14874,10 @@
     </row>
     <row r="6" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="26">
         <v>6</v>
@@ -14994,10 +14983,10 @@
     </row>
     <row r="8" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="27">
         <v>10</v>
@@ -15103,10 +15092,10 @@
     </row>
     <row r="10" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="26">
         <v>4</v>

--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO3.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO3.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F6EF0D-333A-4D04-AAF4-7B9DF4F4BA11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5B0134-A675-4863-A254-1F073686E560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="2115" windowWidth="42960" windowHeight="15900" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="32565" windowHeight="17700" activeTab="12" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;workbook&gt;SET" sheetId="7" r:id="rId1"/>
-    <sheet name="&lt;zall&gt;DEVEXPORT" sheetId="11" r:id="rId2"/>
-    <sheet name="&lt;zall&gt;CABEXPORT" sheetId="14" r:id="rId3"/>
-    <sheet name="BD" sheetId="4" r:id="rId4"/>
-    <sheet name="BDКаб" sheetId="13" r:id="rId5"/>
-    <sheet name="BDKc" sheetId="12" r:id="rId6"/>
-    <sheet name="&lt;zmain&gt;SET" sheetId="8" r:id="rId7"/>
-    <sheet name="&lt;zmain&gt;DEVEXPORT" sheetId="9" r:id="rId8"/>
-    <sheet name="&lt;zmain&gt;" sheetId="10" r:id="rId9"/>
-    <sheet name="&lt;zlight&gt;SET" sheetId="1" r:id="rId10"/>
-    <sheet name="&lt;zlight&gt;TOCAD" sheetId="6" r:id="rId11"/>
-    <sheet name="&lt;zlight&gt;" sheetId="3" r:id="rId12"/>
-    <sheet name="&lt;zlight&gt;DEVEXPORT" sheetId="2" r:id="rId13"/>
-    <sheet name="&lt;zlight&gt;CABEXPORT" sheetId="5" r:id="rId14"/>
+    <sheet name="&lt;zall&gt;CABSET" sheetId="15" r:id="rId2"/>
+    <sheet name="&lt;zall&gt;DEVEXPORT" sheetId="11" r:id="rId3"/>
+    <sheet name="&lt;zall&gt;CABEXPORT" sheetId="14" r:id="rId4"/>
+    <sheet name="BD" sheetId="4" r:id="rId5"/>
+    <sheet name="BDКаб" sheetId="13" r:id="rId6"/>
+    <sheet name="BDKc" sheetId="12" r:id="rId7"/>
+    <sheet name="&lt;zmain&gt;SET" sheetId="8" r:id="rId8"/>
+    <sheet name="&lt;zmain&gt;DEVEXPORT" sheetId="9" r:id="rId9"/>
+    <sheet name="&lt;zmain&gt;" sheetId="10" r:id="rId10"/>
+    <sheet name="&lt;zlight&gt;SET" sheetId="1" r:id="rId11"/>
+    <sheet name="&lt;zlight&gt;TOCAD" sheetId="6" r:id="rId12"/>
+    <sheet name="&lt;zlight&gt;" sheetId="3" r:id="rId13"/>
+    <sheet name="&lt;zlight&gt;DEVEXPORT" sheetId="2" r:id="rId14"/>
+    <sheet name="&lt;zlight&gt;CABEXPORT" sheetId="5" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -158,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM21" authorId="0" shapeId="0" xr:uid="{09858284-5840-42A9-A542-B1DD3A3B8A38}">
+    <comment ref="BV21" authorId="0" shapeId="0" xr:uid="{09858284-5840-42A9-A542-B1DD3A3B8A38}">
       <text>
         <r>
           <rPr>
@@ -184,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN21" authorId="0" shapeId="0" xr:uid="{7F37EF21-5253-4F25-93B3-54D3D4A62710}">
+    <comment ref="BW21" authorId="0" shapeId="0" xr:uid="{7F37EF21-5253-4F25-93B3-54D3D4A62710}">
       <text>
         <r>
           <rPr>
@@ -211,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO21" authorId="0" shapeId="0" xr:uid="{A80E2F67-FD5C-4C25-B0F0-67DAF9D3CCD3}">
+    <comment ref="BX21" authorId="0" shapeId="0" xr:uid="{A80E2F67-FD5C-4C25-B0F0-67DAF9D3CCD3}">
       <text>
         <r>
           <rPr>
@@ -226,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP21" authorId="0" shapeId="0" xr:uid="{B5075101-A280-471A-AE4B-29E87B163163}">
+    <comment ref="BY21" authorId="0" shapeId="0" xr:uid="{B5075101-A280-471A-AE4B-29E87B163163}">
       <text>
         <r>
           <rPr>
@@ -244,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ21" authorId="0" shapeId="0" xr:uid="{89391925-9394-402D-839F-08DD073A50BB}">
+    <comment ref="BZ21" authorId="0" shapeId="0" xr:uid="{89391925-9394-402D-839F-08DD073A50BB}">
       <text>
         <r>
           <rPr>
@@ -271,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR21" authorId="0" shapeId="0" xr:uid="{96335A93-A431-4967-98ED-95819F0DD46E}">
+    <comment ref="CA21" authorId="0" shapeId="0" xr:uid="{96335A93-A431-4967-98ED-95819F0DD46E}">
       <text>
         <r>
           <rPr>
@@ -297,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS21" authorId="0" shapeId="0" xr:uid="{6ACE6DB7-F638-4F68-B68D-94673183A0CA}">
+    <comment ref="CB21" authorId="0" shapeId="0" xr:uid="{6ACE6DB7-F638-4F68-B68D-94673183A0CA}">
       <text>
         <r>
           <rPr>
@@ -312,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BT21" authorId="0" shapeId="0" xr:uid="{6B4F71A2-462E-469D-916E-AD1AC47A85C5}">
+    <comment ref="CC21" authorId="0" shapeId="0" xr:uid="{6B4F71A2-462E-469D-916E-AD1AC47A85C5}">
       <text>
         <r>
           <rPr>
@@ -327,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU21" authorId="0" shapeId="0" xr:uid="{12617574-C341-4EA4-B1C5-9114C82F8751}">
+    <comment ref="CD21" authorId="0" shapeId="0" xr:uid="{12617574-C341-4EA4-B1C5-9114C82F8751}">
       <text>
         <r>
           <rPr>
@@ -342,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BV21" authorId="0" shapeId="0" xr:uid="{D7C9A58D-B174-41F6-85A0-368F70EF7747}">
+    <comment ref="CE21" authorId="0" shapeId="0" xr:uid="{D7C9A58D-B174-41F6-85A0-368F70EF7747}">
       <text>
         <r>
           <rPr>
@@ -357,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BW21" authorId="0" shapeId="0" xr:uid="{6BDDBBFE-9587-4544-B76A-F1E87E1F96F6}">
+    <comment ref="CF21" authorId="0" shapeId="0" xr:uid="{6BDDBBFE-9587-4544-B76A-F1E87E1F96F6}">
       <text>
         <r>
           <rPr>
@@ -372,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BY21" authorId="0" shapeId="0" xr:uid="{D6F624EE-4643-407B-B64A-D993E6A26A3C}">
+    <comment ref="CH21" authorId="0" shapeId="0" xr:uid="{D6F624EE-4643-407B-B64A-D993E6A26A3C}">
       <text>
         <r>
           <rPr>
@@ -389,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BZ21" authorId="0" shapeId="0" xr:uid="{6BE982A4-3193-4C4B-9E16-AA029257111D}">
+    <comment ref="CI21" authorId="0" shapeId="0" xr:uid="{6BE982A4-3193-4C4B-9E16-AA029257111D}">
       <text>
         <r>
           <rPr>
@@ -405,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CA21" authorId="0" shapeId="0" xr:uid="{E0D83316-21EC-4DE0-B39D-5A91F5A99E56}">
+    <comment ref="CJ21" authorId="0" shapeId="0" xr:uid="{E0D83316-21EC-4DE0-B39D-5A91F5A99E56}">
       <text>
         <r>
           <rPr>
@@ -420,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB21" authorId="0" shapeId="0" xr:uid="{41D1C052-5BDE-4389-A110-0292426D615D}">
+    <comment ref="CK21" authorId="0" shapeId="0" xr:uid="{41D1C052-5BDE-4389-A110-0292426D615D}">
       <text>
         <r>
           <rPr>
@@ -435,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC21" authorId="0" shapeId="0" xr:uid="{D6994F2C-50E3-46A6-9BFB-701DDE8FD12C}">
+    <comment ref="CL21" authorId="0" shapeId="0" xr:uid="{D6994F2C-50E3-46A6-9BFB-701DDE8FD12C}">
       <text>
         <r>
           <rPr>
@@ -770,7 +771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX23" authorId="0" shapeId="0" xr:uid="{8EDE95D7-1143-4F4B-A25E-5598F79D1B5B}">
+    <comment ref="AX23" authorId="0" shapeId="0" xr:uid="{B1C54C53-A790-43D2-A089-C5677B9DFBFA}">
       <text>
         <r>
           <rPr>
@@ -778,9 +779,73 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>1-я полка защиты. Коды:
+ВН-выключатель нагрузки
+АВ-автоматический выключатель
+АВДТ-автоматический вык. дифф тока
+УЗО - устройство защитного отключения
+УЗДП - устройство защиты дугового пробоя</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY23" authorId="0" shapeId="0" xr:uid="{DE206410-8E6D-46AF-A7B2-40A09C57B5DE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Объеденение фидеров идет цифарками. Одинаковвые цифры объеденятся под одну полку.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>ВНИМАНИЕ! Одинаковые должны быть расположены рядом!!!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA23" authorId="0" shapeId="0" xr:uid="{8EDE95D7-1143-4F4B-A25E-5598F79D1B5B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Когда группируются токи</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC23" authorId="0" shapeId="0" xr:uid="{55E5A11B-07C7-46F5-AD2B-FC925F03F880}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Коэффициент запаса по току для подбора 1 ур схемы,
+если не задано тогда 1,3</t>
         </r>
       </text>
     </comment>
@@ -789,7 +854,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="402">
   <si>
     <t>&lt;zlight&gt;DEVEXPORT</t>
   </si>
@@ -1931,7 +1996,79 @@
     <t>DEVICE_VSCHEMES_QS</t>
   </si>
   <si>
-    <t>ALL</t>
+    <t>&lt;zall&gt;CABEXPORT</t>
+  </si>
+  <si>
+    <t>&lt;zall&gt;CABCOPY</t>
+  </si>
+  <si>
+    <t>&lt;zall&gt;CAB</t>
+  </si>
+  <si>
+    <t>SLCABAGEN1_NGHeadDevice</t>
+  </si>
+  <si>
+    <t>SLCABAGEN1_HeadDeviceName</t>
+  </si>
+  <si>
+    <t>Ток данной группы</t>
+  </si>
+  <si>
+    <t>Фаза (1,3)</t>
+  </si>
+  <si>
+    <t>Расч ток на групп с уч коэфф</t>
+  </si>
+  <si>
+    <t>Цветовые обозначения, применяемые в таблице:</t>
+  </si>
+  <si>
+    <t>- основные исходные данные, вводимые вручную позьзователем</t>
+  </si>
+  <si>
+    <t>- дополнительные исходные данные, имеющие ключевое значение</t>
+  </si>
+  <si>
+    <t>- исходные данные, задаваемые ссылкой на другие ячейки</t>
+  </si>
+  <si>
+    <t>- константы, не подлежащие изменению позьзователем</t>
+  </si>
+  <si>
+    <t>- данные, введенные вручную в нарушение общего алгоритма</t>
+  </si>
+  <si>
+    <t>- промежуточные результаты, вычисляемые автоматически</t>
+  </si>
+  <si>
+    <t>- промежуточные результаты, имеющие ключевое значение</t>
+  </si>
+  <si>
+    <t>- промежуточные результаты, зависящие от ссылок на другие ячейки</t>
+  </si>
+  <si>
+    <t>- результаты, зависящие от диапазонов значений (требуют внимания)</t>
+  </si>
+  <si>
+    <t>- данные, выводимые в протокол, вычисляемые автоматически</t>
+  </si>
+  <si>
+    <t>- данные, выводимые в протокол, задаваемые вручную</t>
+  </si>
+  <si>
+    <t>Принуд. уставка, А</t>
+  </si>
+  <si>
+    <t>Руч уставка мин, А</t>
+  </si>
+  <si>
+    <t>Расчет уставки по току, А</t>
+  </si>
+  <si>
+    <t>Выбран. уставка, А</t>
+  </si>
+  <si>
+    <t>ALL2</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +2079,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2070,13 +2207,75 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <i/>
+      <sz val="8"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="60"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="13"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="17"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="20"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2161,8 +2360,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="53">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -2842,13 +3083,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3165,6 +3417,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="21" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="21" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="21" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="21" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3213,8 +3531,103 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3228,34 +3641,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -3279,73 +3664,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4643,8 +4961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9A3CA2-6484-4A78-8C46-2DFDF58AF4E8}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4657,7 +4975,7 @@
         <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4706,6 +5024,237 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFBE0E3-93E9-4D98-927D-A8C9FCC59321}">
+  <dimension ref="E8:P22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E8" s="138" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="138"/>
+    </row>
+    <row r="9" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="138"/>
+    </row>
+    <row r="10" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="138"/>
+    </row>
+    <row r="11" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="138"/>
+    </row>
+    <row r="12" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="138"/>
+    </row>
+    <row r="13" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="138"/>
+    </row>
+    <row r="14" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="138"/>
+    </row>
+    <row r="15" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="138"/>
+    </row>
+    <row r="16" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="138"/>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="138"/>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="138"/>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="138"/>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="138"/>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="138"/>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="138"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E8:P22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FDFFC8-3239-46C1-B119-51B6AFCFF800}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:A2"/>
@@ -4734,7 +5283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1716B96F-A01E-4EBE-9361-360895827D35}">
   <dimension ref="B4:AL8"/>
   <sheetViews>
@@ -4852,7 +5401,7 @@
       </c>
       <c r="T8" s="1" t="str">
         <f>'&lt;zlight&gt;'!AJ24</f>
-        <v>GC_HeadDevice.GC_HDGroup</v>
+        <v>SLCABAGEN1_HeadDeviceName.SLCABAGEN1_NGHeadDevice</v>
       </c>
       <c r="U8" t="s">
         <v>73</v>
@@ -4919,12 +5468,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D8C22C-893A-456C-B6B4-5CEC07C317DD}">
-  <dimension ref="C1:EJ24"/>
+  <dimension ref="C1:ES24"/>
   <sheetViews>
-    <sheetView topLeftCell="N7" workbookViewId="0">
-      <selection activeCell="BA25" sqref="BA25"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4950,20 +5499,20 @@
     <col min="39" max="41" width="5.7109375" customWidth="1"/>
     <col min="42" max="43" width="7.7109375" customWidth="1"/>
     <col min="44" max="44" width="19" customWidth="1"/>
-    <col min="45" max="50" width="8.28515625" customWidth="1"/>
-    <col min="51" max="52" width="7.7109375" customWidth="1"/>
-    <col min="53" max="56" width="8.85546875" customWidth="1"/>
-    <col min="57" max="64" width="10.42578125" customWidth="1"/>
-    <col min="65" max="76" width="3.7109375" customWidth="1"/>
-    <col min="77" max="81" width="4.7109375" customWidth="1"/>
-    <col min="82" max="82" width="10.42578125" customWidth="1"/>
-    <col min="83" max="83" width="28" customWidth="1"/>
-    <col min="84" max="89" width="10.42578125" customWidth="1"/>
-    <col min="90" max="90" width="25" customWidth="1"/>
-    <col min="91" max="108" width="10.42578125" customWidth="1"/>
+    <col min="45" max="59" width="8.28515625" customWidth="1"/>
+    <col min="60" max="61" width="7.7109375" customWidth="1"/>
+    <col min="62" max="65" width="8.85546875" customWidth="1"/>
+    <col min="66" max="73" width="10.42578125" customWidth="1"/>
+    <col min="74" max="85" width="3.7109375" customWidth="1"/>
+    <col min="86" max="90" width="4.7109375" customWidth="1"/>
+    <col min="91" max="91" width="10.42578125" customWidth="1"/>
+    <col min="92" max="92" width="28" customWidth="1"/>
+    <col min="93" max="98" width="10.42578125" customWidth="1"/>
+    <col min="99" max="99" width="25" customWidth="1"/>
+    <col min="100" max="117" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:45" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="str">
         <f>'&lt;zlight&gt;'!F18</f>
         <v>NMO_Name</v>
@@ -4985,34 +5534,54 @@
         <v>АВС</v>
       </c>
     </row>
-    <row r="4" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D4" s="151" t="s">
+    <row r="2" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="AD2" s="109" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE2" s="110"/>
+    </row>
+    <row r="3" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="AD3" s="111">
+        <v>1234</v>
+      </c>
+      <c r="AE3" s="112" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D4" s="149" t="s">
         <v>283</v>
       </c>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
       <c r="I4" s="84" t="s">
         <v>284</v>
       </c>
       <c r="O4" s="84"/>
-      <c r="P4" s="151" t="s">
+      <c r="P4" s="149" t="s">
         <v>285</v>
       </c>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="151"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
+      <c r="Q4" s="149"/>
+      <c r="R4" s="149"/>
+      <c r="S4" s="149"/>
+      <c r="T4" s="149"/>
+      <c r="U4" s="149"/>
+      <c r="AD4" s="113">
+        <v>1234</v>
+      </c>
+      <c r="AE4" s="112" t="s">
+        <v>387</v>
+      </c>
     </row>
-    <row r="5" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D5" s="145" t="s">
+    <row r="5" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D5" s="141" t="s">
         <v>286</v>
       </c>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="78" t="str">
         <f>'&lt;zlight&gt;'!F18</f>
         <v>NMO_Name</v>
@@ -5023,25 +5592,31 @@
       <c r="O5" s="82" t="s">
         <v>288</v>
       </c>
-      <c r="P5" s="146" t="s">
+      <c r="P5" s="150" t="s">
         <v>289</v>
       </c>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="146"/>
-      <c r="T5" s="146" t="e">
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150" t="e">
         <f ca="1">SUM($AC$24:$AC$12000)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U5" s="146"/>
+      <c r="U5" s="150"/>
+      <c r="AD5" s="114">
+        <v>1234</v>
+      </c>
+      <c r="AE5" s="112" t="s">
+        <v>388</v>
+      </c>
     </row>
-    <row r="6" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D6" s="145" t="s">
+    <row r="6" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D6" s="141" t="s">
         <v>290</v>
       </c>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="79" t="s">
         <v>291</v>
       </c>
@@ -5051,25 +5626,31 @@
       <c r="O6" s="82">
         <v>63</v>
       </c>
-      <c r="P6" s="146" t="s">
+      <c r="P6" s="150" t="s">
         <v>293</v>
       </c>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="146" t="e">
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="150" t="e">
         <f ca="1">T5*T11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U6" s="146"/>
+      <c r="U6" s="150"/>
+      <c r="AD6" s="115">
+        <v>380</v>
+      </c>
+      <c r="AE6" s="112" t="s">
+        <v>389</v>
+      </c>
     </row>
-    <row r="7" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D7" s="145" t="s">
+    <row r="7" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D7" s="141" t="s">
         <v>294</v>
       </c>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="79">
         <v>45399</v>
       </c>
@@ -5079,25 +5660,31 @@
       <c r="O7" s="82">
         <v>32</v>
       </c>
-      <c r="P7" s="146" t="s">
+      <c r="P7" s="150" t="s">
         <v>296</v>
       </c>
-      <c r="Q7" s="146"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="146"/>
-      <c r="T7" s="146" t="e">
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150" t="e">
         <f ca="1">SUM($AE$24:$AE$12000)*T11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U7" s="146"/>
+      <c r="U7" s="150"/>
+      <c r="AD7" s="116">
+        <v>123.4</v>
+      </c>
+      <c r="AE7" s="112" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="8" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="145" t="s">
+    <row r="8" spans="4:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="141" t="s">
         <v>297</v>
       </c>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
       <c r="H8" s="79" t="s">
         <v>298</v>
       </c>
@@ -5107,24 +5694,30 @@
       <c r="O8" s="82">
         <v>6</v>
       </c>
-      <c r="P8" s="148" t="s">
+      <c r="P8" s="151" t="s">
         <v>319</v>
       </c>
-      <c r="Q8" s="149"/>
-      <c r="R8" s="149"/>
-      <c r="S8" s="150"/>
-      <c r="T8" s="147">
+      <c r="Q8" s="152"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="145">
         <v>0.92</v>
       </c>
-      <c r="U8" s="147"/>
+      <c r="U8" s="145"/>
+      <c r="AD8" s="120">
+        <v>123</v>
+      </c>
+      <c r="AE8" s="112" t="s">
+        <v>391</v>
+      </c>
     </row>
-    <row r="9" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D9" s="145" t="s">
+    <row r="9" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D9" s="141" t="s">
         <v>301</v>
       </c>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
       <c r="H9" s="79" t="s">
         <v>302</v>
       </c>
@@ -5134,42 +5727,62 @@
       <c r="O9" s="82" t="s">
         <v>304</v>
       </c>
-      <c r="P9" s="152" t="s">
+      <c r="P9" s="144" t="s">
         <v>300</v>
       </c>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
+      <c r="Q9" s="144"/>
+      <c r="R9" s="144"/>
+      <c r="S9" s="144"/>
+      <c r="T9" s="145"/>
+      <c r="U9" s="145"/>
+      <c r="AD9" s="119">
+        <v>123</v>
+      </c>
+      <c r="AE9" s="112" t="s">
+        <v>392</v>
+      </c>
+      <c r="AR9">
+        <f>30/4</f>
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="10" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D10" s="145" t="s">
+    <row r="10" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D10" s="141" t="s">
         <v>305</v>
       </c>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
       <c r="I10" s="82" t="s">
         <v>306</v>
       </c>
       <c r="O10" s="82">
         <v>4</v>
       </c>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="152"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="145"/>
+      <c r="U10" s="145"/>
+      <c r="AD10" s="121">
+        <v>123</v>
+      </c>
+      <c r="AE10" s="112" t="s">
+        <v>393</v>
+      </c>
+      <c r="AS10">
+        <f>AR9*100</f>
+        <v>750</v>
+      </c>
     </row>
-    <row r="11" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D11" s="145" t="s">
+    <row r="11" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D11" s="141" t="s">
         <v>321</v>
       </c>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
       <c r="H11" s="79">
         <v>380</v>
       </c>
@@ -5179,24 +5792,30 @@
       <c r="O11" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="P11" s="154" t="s">
+      <c r="P11" s="146" t="s">
         <v>310</v>
       </c>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="155"/>
-      <c r="S11" s="156"/>
-      <c r="T11" s="154">
+      <c r="Q11" s="147"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="146">
         <v>0.65</v>
       </c>
-      <c r="U11" s="156"/>
+      <c r="U11" s="148"/>
+      <c r="AD11" s="122">
+        <v>123</v>
+      </c>
+      <c r="AE11" s="112" t="s">
+        <v>394</v>
+      </c>
     </row>
-    <row r="12" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D12" s="145" t="s">
+    <row r="12" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D12" s="141" t="s">
         <v>307</v>
       </c>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
       <c r="H12" s="79" t="s">
         <v>320</v>
       </c>
@@ -5206,91 +5825,101 @@
       <c r="O12" s="82" t="s">
         <v>313</v>
       </c>
-      <c r="P12" s="153" t="s">
+      <c r="P12" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153">
+      <c r="Q12" s="142"/>
+      <c r="R12" s="142"/>
+      <c r="S12" s="142"/>
+      <c r="T12" s="142">
         <v>44.5</v>
       </c>
-      <c r="U12" s="153"/>
+      <c r="U12" s="142"/>
+      <c r="AD12" s="117">
+        <v>123.4</v>
+      </c>
+      <c r="AE12" s="112" t="s">
+        <v>395</v>
+      </c>
     </row>
-    <row r="13" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="145" t="s">
+    <row r="13" spans="4:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="141" t="s">
         <v>311</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
       <c r="H13" s="79" t="s">
         <v>312</v>
       </c>
       <c r="I13" s="83"/>
       <c r="O13" s="83"/>
-      <c r="P13" s="153" t="s">
+      <c r="P13" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="153"/>
-      <c r="T13" s="153">
+      <c r="Q13" s="142"/>
+      <c r="R13" s="142"/>
+      <c r="S13" s="142"/>
+      <c r="T13" s="142">
         <v>44.5</v>
       </c>
-      <c r="U13" s="153"/>
+      <c r="U13" s="142"/>
       <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
+      <c r="AD13" s="118">
+        <v>123.4</v>
+      </c>
+      <c r="AE13" s="112" t="s">
+        <v>396</v>
+      </c>
     </row>
-    <row r="14" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D14" s="145" t="s">
+    <row r="14" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D14" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
       <c r="H14" s="80" t="str">
         <f>'&lt;zlight&gt;'!G18&amp;"."&amp;'&lt;zlight&gt;'!H18</f>
         <v>GC_HeadDevice.GC_HDGroup</v>
       </c>
       <c r="I14" s="83"/>
       <c r="O14" s="83"/>
-      <c r="P14" s="153" t="s">
+      <c r="P14" s="142" t="s">
         <v>318</v>
       </c>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="153"/>
-      <c r="T14" s="153">
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
+      <c r="S14" s="142"/>
+      <c r="T14" s="142">
         <v>44.5</v>
       </c>
-      <c r="U14" s="153"/>
+      <c r="U14" s="142"/>
     </row>
-    <row r="15" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D15" s="145" t="s">
+    <row r="15" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D15" s="141" t="s">
         <v>317</v>
       </c>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
       <c r="H15" s="79">
         <v>77</v>
       </c>
       <c r="O15" s="102"/>
-      <c r="P15" s="159" t="s">
+      <c r="P15" s="143" t="s">
         <v>356</v>
       </c>
-      <c r="Q15" s="159"/>
-      <c r="R15" s="159"/>
-      <c r="S15" s="159"/>
-      <c r="T15" s="159" t="e">
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143" t="e">
         <f ca="1">ROUNDUP((T6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*T8),2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U15" s="159"/>
+      <c r="U15" s="143"/>
     </row>
-    <row r="18" spans="3:140" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:149" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>97</v>
       </c>
@@ -5309,250 +5938,259 @@
       <c r="I18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BM18" s="1"/>
-      <c r="BP18" s="1"/>
+      <c r="BV18" s="1"/>
+      <c r="BY18" s="1"/>
     </row>
-    <row r="20" spans="3:140" x14ac:dyDescent="0.25">
-      <c r="CE20" s="77" t="s">
+    <row r="20" spans="3:149" x14ac:dyDescent="0.25">
+      <c r="CN20" s="77" t="s">
         <v>271</v>
       </c>
-      <c r="CF20" s="77" t="s">
+      <c r="CO20" s="77" t="s">
         <v>272</v>
       </c>
-      <c r="CG20" s="77" t="s">
+      <c r="CP20" s="77" t="s">
         <v>273</v>
       </c>
-      <c r="CH20" s="77" t="s">
+      <c r="CQ20" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="CI20" s="77" t="s">
+      <c r="CR20" s="77" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="3:140" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="BM21" s="11"/>
-      <c r="BN21" s="11"/>
-      <c r="BO21" s="96"/>
-      <c r="BP21" s="11"/>
-      <c r="BQ21" s="11"/>
-      <c r="BR21" s="11"/>
-      <c r="BS21" s="98"/>
-      <c r="BT21" s="11"/>
-      <c r="BU21" s="79"/>
-      <c r="BV21" s="79"/>
-      <c r="BW21" s="157"/>
-      <c r="BX21" s="158"/>
-      <c r="BY21" s="99"/>
-      <c r="BZ21" s="99"/>
-      <c r="CA21" s="99"/>
-      <c r="CB21" s="93"/>
-      <c r="CC21" s="94"/>
-      <c r="CD21" t="s">
+    <row r="21" spans="3:149" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BV21" s="11"/>
+      <c r="BW21" s="11"/>
+      <c r="BX21" s="96"/>
+      <c r="BY21" s="11"/>
+      <c r="BZ21" s="11"/>
+      <c r="CA21" s="11"/>
+      <c r="CB21" s="98"/>
+      <c r="CC21" s="11"/>
+      <c r="CD21" s="79"/>
+      <c r="CE21" s="79"/>
+      <c r="CF21" s="139"/>
+      <c r="CG21" s="140"/>
+      <c r="CH21" s="99"/>
+      <c r="CI21" s="99"/>
+      <c r="CJ21" s="99"/>
+      <c r="CK21" s="93"/>
+      <c r="CL21" s="94"/>
+      <c r="CM21" t="s">
         <v>59</v>
       </c>
-      <c r="CE21" s="1" t="s">
+      <c r="CN21" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="CF21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH21" s="1">
+      <c r="CO21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ21" s="1">
         <v>1</v>
       </c>
-      <c r="CI21" s="1">
+      <c r="CR21" s="1">
         <v>1</v>
       </c>
-      <c r="DR21" t="s">
+      <c r="EA21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="3:140" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="139" t="s">
+    <row r="22" spans="3:149" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="158" t="s">
         <v>188</v>
       </c>
-      <c r="F22" s="126" t="s">
+      <c r="F22" s="160" t="s">
         <v>189</v>
       </c>
-      <c r="G22" s="143" t="s">
+      <c r="G22" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="H22" s="126" t="s">
+      <c r="H22" s="160" t="s">
         <v>191</v>
       </c>
-      <c r="I22" s="126" t="s">
+      <c r="I22" s="160" t="s">
         <v>192</v>
       </c>
-      <c r="J22" s="128" t="s">
+      <c r="J22" s="163" t="s">
         <v>327</v>
       </c>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="129" t="s">
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="164" t="s">
         <v>332</v>
       </c>
-      <c r="O22" s="141" t="s">
+      <c r="O22" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="142"/>
-      <c r="R22" s="142"/>
-      <c r="S22" s="142"/>
-      <c r="T22" s="142"/>
-      <c r="U22" s="142"/>
-      <c r="V22" s="142"/>
-      <c r="W22" s="142"/>
-      <c r="X22" s="142"/>
-      <c r="Y22" s="142"/>
-      <c r="Z22" s="142"/>
-      <c r="AA22" s="123" t="s">
+      <c r="P22" s="157"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="157"/>
+      <c r="T22" s="157"/>
+      <c r="U22" s="157"/>
+      <c r="V22" s="157"/>
+      <c r="W22" s="157"/>
+      <c r="X22" s="157"/>
+      <c r="Y22" s="157"/>
+      <c r="Z22" s="157"/>
+      <c r="AA22" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="AB22" s="124"/>
-      <c r="AC22" s="124"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="124"/>
-      <c r="AF22" s="124"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="125"/>
-      <c r="AJ22" s="133" t="s">
+      <c r="AB22" s="169"/>
+      <c r="AC22" s="169"/>
+      <c r="AD22" s="169"/>
+      <c r="AE22" s="169"/>
+      <c r="AF22" s="169"/>
+      <c r="AG22" s="169"/>
+      <c r="AH22" s="169"/>
+      <c r="AI22" s="170"/>
+      <c r="AJ22" s="171" t="s">
         <v>131</v>
       </c>
-      <c r="AK22" s="134"/>
-      <c r="AL22" s="134"/>
-      <c r="AM22" s="134"/>
-      <c r="AN22" s="134"/>
-      <c r="AO22" s="134"/>
-      <c r="AP22" s="134"/>
-      <c r="AQ22" s="134"/>
-      <c r="AR22" s="134"/>
-      <c r="AS22" s="134"/>
-      <c r="AT22" s="134"/>
-      <c r="AU22" s="134"/>
-      <c r="AV22" s="134"/>
-      <c r="AW22" s="135"/>
-      <c r="AX22" s="123" t="s">
+      <c r="AK22" s="172"/>
+      <c r="AL22" s="172"/>
+      <c r="AM22" s="172"/>
+      <c r="AN22" s="172"/>
+      <c r="AO22" s="172"/>
+      <c r="AP22" s="172"/>
+      <c r="AQ22" s="172"/>
+      <c r="AR22" s="172"/>
+      <c r="AS22" s="172"/>
+      <c r="AT22" s="172"/>
+      <c r="AU22" s="172"/>
+      <c r="AV22" s="172"/>
+      <c r="AW22" s="173"/>
+      <c r="AX22" s="168" t="s">
         <v>220</v>
       </c>
-      <c r="AY22" s="124"/>
-      <c r="AZ22" s="124"/>
-      <c r="BA22" s="124"/>
-      <c r="BB22" s="124"/>
-      <c r="BC22" s="124"/>
-      <c r="BD22" s="124"/>
-      <c r="BE22" s="125"/>
-      <c r="BF22" s="136" t="s">
+      <c r="AY22" s="169"/>
+      <c r="AZ22" s="169"/>
+      <c r="BA22" s="169"/>
+      <c r="BB22" s="169"/>
+      <c r="BC22" s="169"/>
+      <c r="BD22" s="169"/>
+      <c r="BE22" s="169"/>
+      <c r="BF22" s="169"/>
+      <c r="BG22" s="169"/>
+      <c r="BH22" s="169"/>
+      <c r="BI22" s="169"/>
+      <c r="BJ22" s="169"/>
+      <c r="BK22" s="169"/>
+      <c r="BL22" s="169"/>
+      <c r="BM22" s="169"/>
+      <c r="BN22" s="170"/>
+      <c r="BO22" s="174" t="s">
         <v>228</v>
       </c>
-      <c r="BG22" s="137"/>
-      <c r="BH22" s="137"/>
-      <c r="BI22" s="137"/>
-      <c r="BJ22" s="137"/>
-      <c r="BK22" s="137"/>
-      <c r="BL22" s="138"/>
-      <c r="BM22" s="131" t="s">
+      <c r="BP22" s="175"/>
+      <c r="BQ22" s="175"/>
+      <c r="BR22" s="175"/>
+      <c r="BS22" s="175"/>
+      <c r="BT22" s="175"/>
+      <c r="BU22" s="176"/>
+      <c r="BV22" s="166" t="s">
         <v>124</v>
       </c>
-      <c r="BN22" s="132"/>
-      <c r="BO22" s="132"/>
-      <c r="BP22" s="132"/>
-      <c r="BQ22" s="132"/>
-      <c r="BR22" s="132"/>
-      <c r="BS22" s="132"/>
-      <c r="BT22" s="132"/>
-      <c r="BU22" s="132"/>
-      <c r="BV22" s="132"/>
-      <c r="BW22" s="132"/>
-      <c r="BX22" s="132"/>
-      <c r="BY22" s="89"/>
-      <c r="BZ22" s="91"/>
-      <c r="CA22" s="95"/>
-      <c r="CB22" s="95"/>
-      <c r="CC22" s="95"/>
-      <c r="CD22" t="s">
+      <c r="BW22" s="167"/>
+      <c r="BX22" s="167"/>
+      <c r="BY22" s="167"/>
+      <c r="BZ22" s="167"/>
+      <c r="CA22" s="167"/>
+      <c r="CB22" s="167"/>
+      <c r="CC22" s="167"/>
+      <c r="CD22" s="167"/>
+      <c r="CE22" s="167"/>
+      <c r="CF22" s="167"/>
+      <c r="CG22" s="167"/>
+      <c r="CH22" s="89"/>
+      <c r="CI22" s="91"/>
+      <c r="CJ22" s="95"/>
+      <c r="CK22" s="95"/>
+      <c r="CL22" s="95"/>
+      <c r="CM22" t="s">
         <v>59</v>
       </c>
-      <c r="CE22" s="1" t="s">
+      <c r="CN22" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="CF22" s="1">
+      <c r="CO22" s="1">
         <v>60</v>
       </c>
-      <c r="CG22" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH22" s="1">
+      <c r="CP22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ22" s="1">
         <v>1</v>
       </c>
-      <c r="CI22" s="1">
+      <c r="CR22" s="1">
         <v>1</v>
       </c>
-      <c r="CJ22" t="s">
+      <c r="CS22" t="s">
         <v>349</v>
       </c>
-      <c r="CK22" t="str">
+      <c r="CT22" t="str">
         <f>H5</f>
         <v>NMO_Name</v>
       </c>
-      <c r="CL22" t="s">
+      <c r="CU22" t="s">
         <v>350</v>
       </c>
-      <c r="CM22" t="str">
+      <c r="CV22" t="str">
         <f>H6</f>
         <v>ЩРН-12</v>
       </c>
-      <c r="CN22" t="s">
+      <c r="CW22" t="s">
         <v>351</v>
       </c>
-      <c r="CO22" t="e">
+      <c r="CX22" t="e">
         <f ca="1">"Установленная полная мощность, Ру = "&amp;T5&amp;"кВт"</f>
         <v>#VALUE!</v>
       </c>
-      <c r="CP22" t="s">
+      <c r="CY22" t="s">
         <v>352</v>
       </c>
-      <c r="CQ22" t="str">
+      <c r="CZ22" t="str">
         <f>"Коэффициент спроса, Кс = "&amp;T11</f>
         <v>Коэффициент спроса, Кс = 0,65</v>
       </c>
-      <c r="CR22" t="s">
+      <c r="DA22" t="s">
         <v>353</v>
       </c>
-      <c r="CS22" t="e">
+      <c r="DB22" t="e">
         <f ca="1">"Расчетная мощность, Рр = "&amp;T6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="CT22" t="s">
+      <c r="DC22" t="s">
         <v>354</v>
       </c>
-      <c r="CU22" t="str">
+      <c r="DD22" t="str">
         <f>"Коэффициент мощности, cosf = "&amp;T8</f>
         <v>Коэффициент мощности, cosf = 0,92</v>
       </c>
-      <c r="CV22" t="s">
+      <c r="DE22" t="s">
         <v>355</v>
       </c>
-      <c r="CW22" t="e">
+      <c r="DF22" t="e">
         <f ca="1">"Расчетный ток, Iр = "&amp;T15&amp;"А"</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DR22" t="s">
+      <c r="EA22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="3:140" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="140"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
+    <row r="23" spans="3:149" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="155"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
       <c r="J23" s="85" t="s">
         <v>328</v>
       </c>
@@ -5562,7 +6200,7 @@
       <c r="L23" s="85" t="s">
         <v>330</v>
       </c>
-      <c r="M23" s="130"/>
+      <c r="M23" s="165"/>
       <c r="O23" s="56" t="s">
         <v>123</v>
       </c>
@@ -5668,132 +6306,159 @@
       <c r="AW23" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="AX23" s="63" t="s">
+      <c r="AX23" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY23" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ23" s="107" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA23" s="63" t="s">
         <v>331</v>
       </c>
-      <c r="AY23" s="73" t="s">
+      <c r="BB23" s="107" t="s">
+        <v>383</v>
+      </c>
+      <c r="BC23" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD23" s="73" t="s">
+        <v>384</v>
+      </c>
+      <c r="BE23" s="73" t="s">
+        <v>399</v>
+      </c>
+      <c r="BF23" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="BG23" s="73" t="s">
+        <v>397</v>
+      </c>
+      <c r="BH23" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="BI23" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="BJ23" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="BK23" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL23" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="BM23" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="BN23" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="BO23" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="AZ23" s="73" t="s">
+      <c r="BP23" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="BA23" s="73" t="s">
+      <c r="BQ23" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="BB23" s="73" t="s">
+      <c r="BR23" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="BC23" s="63" t="s">
+      <c r="BS23" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="BD23" s="73" t="s">
+      <c r="BT23" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="BE23" s="70" t="s">
+      <c r="BU23" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="BF23" s="76" t="s">
-        <v>223</v>
-      </c>
-      <c r="BG23" s="76" t="s">
-        <v>182</v>
-      </c>
-      <c r="BH23" s="76" t="s">
-        <v>185</v>
-      </c>
-      <c r="BI23" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="BJ23" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="BK23" s="76" t="s">
-        <v>218</v>
-      </c>
-      <c r="BL23" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="BM23" s="131"/>
-      <c r="BN23" s="132"/>
-      <c r="BO23" s="132"/>
-      <c r="BP23" s="132"/>
-      <c r="BQ23" s="132"/>
-      <c r="BR23" s="132"/>
-      <c r="BS23" s="132"/>
-      <c r="BT23" s="132"/>
-      <c r="BU23" s="132"/>
-      <c r="BV23" s="132"/>
-      <c r="BW23" s="132"/>
-      <c r="BX23" s="132"/>
-      <c r="BY23" s="89"/>
-      <c r="BZ23" s="91"/>
-      <c r="CA23" s="95"/>
-      <c r="CB23" s="95"/>
-      <c r="CC23" s="95"/>
-      <c r="CF23" s="1">
+      <c r="BV23" s="166"/>
+      <c r="BW23" s="167"/>
+      <c r="BX23" s="167"/>
+      <c r="BY23" s="167"/>
+      <c r="BZ23" s="167"/>
+      <c r="CA23" s="167"/>
+      <c r="CB23" s="167"/>
+      <c r="CC23" s="167"/>
+      <c r="CD23" s="167"/>
+      <c r="CE23" s="167"/>
+      <c r="CF23" s="167"/>
+      <c r="CG23" s="167"/>
+      <c r="CH23" s="89"/>
+      <c r="CI23" s="91"/>
+      <c r="CJ23" s="95"/>
+      <c r="CK23" s="95"/>
+      <c r="CL23" s="95"/>
+      <c r="CO23" s="1">
         <v>35</v>
       </c>
-      <c r="DS23" s="122" t="s">
+      <c r="EB23" s="162" t="s">
         <v>363</v>
       </c>
-      <c r="DT23" s="122"/>
-      <c r="DU23" s="122"/>
-      <c r="DV23" s="122"/>
-      <c r="DW23" s="122"/>
-      <c r="DX23" s="122"/>
-      <c r="DY23" s="122"/>
-      <c r="DZ23" s="122"/>
-      <c r="EA23" s="122"/>
-      <c r="EB23" s="122" t="s">
+      <c r="EC23" s="162"/>
+      <c r="ED23" s="162"/>
+      <c r="EE23" s="162"/>
+      <c r="EF23" s="162"/>
+      <c r="EG23" s="162"/>
+      <c r="EH23" s="162"/>
+      <c r="EI23" s="162"/>
+      <c r="EJ23" s="162"/>
+      <c r="EK23" s="162" t="s">
         <v>367</v>
       </c>
-      <c r="EC23" s="122"/>
-      <c r="ED23" s="122"/>
-      <c r="EE23" s="122"/>
-      <c r="EF23" s="122"/>
-      <c r="EG23" s="122"/>
-      <c r="EH23" s="122"/>
-      <c r="EI23" s="122"/>
-      <c r="EJ23" s="122"/>
+      <c r="EL23" s="162"/>
+      <c r="EM23" s="162"/>
+      <c r="EN23" s="162"/>
+      <c r="EO23" s="162"/>
+      <c r="EP23" s="162"/>
+      <c r="EQ23" s="162"/>
+      <c r="ER23" s="162"/>
+      <c r="ES23" s="162"/>
     </row>
-    <row r="24" spans="3:140" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:149" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>281</v>
       </c>
       <c r="D24" s="64" t="str">
         <f>IF('&lt;zlight&gt;DEVEXPORT'!P11=1,'&lt;zlight&gt;DEVEXPORT'!F11,"")</f>
-        <v>GC_HDGroup</v>
-      </c>
-      <c r="E24" s="64" t="str">
+        <v>SLCABAGEN1_NGHeadDevice</v>
+      </c>
+      <c r="E24" s="111" t="str">
         <f>IF(D24="","","АВ")</f>
         <v>АВ</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="111">
         <f>IF(D24="","",1)</f>
         <v>1</v>
       </c>
-      <c r="G24" s="64" t="str">
+      <c r="G24" s="111" t="str">
         <f>IF(D24="","","АВ")</f>
         <v>АВ</v>
       </c>
       <c r="H24" s="64" t="e">
-        <f ca="1">IF(E24="","",IF(F24="",BC24&amp;", "&amp;BD24&amp;", "&amp;BE24,IF(MATCH(F24,$F$24:F24,0)=MATCH(F24,$F$24:F24,1),BC24&amp;", "&amp;BD24&amp;", "&amp;BE24,"")))</f>
+        <f ca="1">IF(E24="","",IF(F24="",BL24&amp;", "&amp;BM24&amp;", "&amp;BN24,IF(MATCH(F24,$F$24:F24,0)=MATCH(F24,$F$24:F24,1),BL24&amp;", "&amp;BM24&amp;", "&amp;BN24,"")))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I24" s="64" t="e">
-        <f ca="1">IF(G24="","",BJ24&amp;", "&amp;BK24&amp;", "&amp;BL24)</f>
+        <f ca="1">IF(G24="","",BS24&amp;", "&amp;BT24&amp;", "&amp;BU24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J24" s="1">
-        <f>IF(BQ24=0,1,0)</f>
+        <f>IF(BZ24=0,1,0)</f>
         <v>1</v>
       </c>
       <c r="K24" s="1">
-        <f>IF(BQ24=0,0,IF(L24=0,IF(MATCH(BQ24,$O$24:O24,0)=0,0,1),0))</f>
+        <f>IF(BZ24=0,0,IF(L24=0,IF(MATCH(BZ24,$O$24:O24,0)=0,0,1),0))</f>
         <v>0</v>
       </c>
       <c r="L24" s="1">
-        <f>IF(BQ24=0,0,IF(INDEX($BQ$24:BQ24,MATCH(BQ24,$O$24:O24,0))=0,0,1))</f>
+        <f>IF(BZ24=0,0,IF(INDEX($BZ$24:BZ24,MATCH(BZ24,$O$24:O24,0))=0,0,1))</f>
         <v>0</v>
       </c>
       <c r="M24" s="88" t="e">
@@ -5805,19 +6470,19 @@
         <v>NMO_BaseName</v>
       </c>
       <c r="P24" s="86" t="e">
-        <f ca="1">IF(IFERROR(BN24,1)=1,VLOOKUP('&lt;zlight&gt;DEVEXPORT'!M11,BD!$A$4:$C$5,2,FALSE),INDIRECT("'"&amp;O24&amp;"'!"&amp;"G1"))</f>
+        <f ca="1">IF(IFERROR(BW24,1)=1,VLOOKUP('&lt;zlight&gt;DEVEXPORT'!M11,BD!$A$4:$C$5,2,FALSE),INDIRECT("'"&amp;O24&amp;"'!"&amp;"G1"))</f>
         <v>#N/A</v>
       </c>
       <c r="Q24" s="86" t="e">
-        <f ca="1">IF(IFERROR(BN24,1)=1,VLOOKUP('&lt;zlight&gt;DEVEXPORT'!N11,BD!$A$10:$B$13,2,FALSE),INDIRECT("'"&amp;O24&amp;"'!"&amp;"H1"))</f>
+        <f ca="1">IF(IFERROR(BW24,1)=1,VLOOKUP('&lt;zlight&gt;DEVEXPORT'!N11,BD!$A$10:$B$13,2,FALSE),INDIRECT("'"&amp;O24&amp;"'!"&amp;"H1"))</f>
         <v>#N/A</v>
       </c>
       <c r="R24" s="86" t="e">
-        <f ca="1">IF(IFERROR(BN24,1)=1,W24*V24,INDIRECT("'"&amp;O24&amp;"'!"&amp;"E1"))</f>
+        <f ca="1">IF(IFERROR(BW24,1)=1,W24*V24,INDIRECT("'"&amp;O24&amp;"'!"&amp;"E1"))</f>
         <v>#VALUE!</v>
       </c>
       <c r="S24" s="86" t="str">
-        <f ca="1">IF(IFERROR(BN24,1)=1,'&lt;zlight&gt;DEVEXPORT'!K11,INDIRECT("'"&amp;O24&amp;"'!"&amp;"F1"))</f>
+        <f ca="1">IF(IFERROR(BW24,1)=1,'&lt;zlight&gt;DEVEXPORT'!K11,INDIRECT("'"&amp;O24&amp;"'!"&amp;"F1"))</f>
         <v>CosPHI</v>
       </c>
       <c r="T24" s="87" t="e">
@@ -5852,11 +6517,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="AC24" s="67" t="e">
-        <f ca="1">IF(D24="","",AA24*SUMIFS($R$24:$R$12000,$BM$24:$BM$12000,BM24))</f>
+        <f ca="1">IF(D24="","",AA24*SUMIFS($R$24:$R$12000,$BV$24:$BV$12000,BV24))</f>
         <v>#VALUE!</v>
       </c>
       <c r="AD24" s="67" t="e">
-        <f ca="1">IF(D24="","",ROUNDUP(IF(P24=380,SQRT(3),2)*AE24*AL24*(HLOOKUP(AM24&amp;AN24&amp;AO24&amp;"R",BDКаб!$B$3:$AH$12,MATCH(AQ24,BDКаб!$B$5:$B$12,1)+2,FALSE)*AB24 + HLOOKUP(AM24&amp;AN24&amp;AO24&amp;"X",BDКаб!$B$3:$AH$12,MATCH(AQ24,BDКаб!$B$5:$B$12,1)+2,FALSE)*SQRT(1-AB24*AB24))/(1000*IF(P24=380,380,220)),2))</f>
+        <f ca="1">IF(D24="","",ROUNDUP((1/1000)*(100/P24)*IF(P24&lt;380,2,SQRT(3))*AE24*AL24*(INDEX(INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$C$4:$AH$4,1,MATCH(AM24&amp;AN24&amp;AO24&amp;"R",BDКаб!$C$3:$AH$3,0))),MATCH(AQ24,BDКаб!$B$5:$B$12,0))*AB24 + INDEX(INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$C$4:$AH$4,1,MATCH(AM24&amp;AN24&amp;AO24&amp;"X",BDКаб!$C$3:$AH$3,0))),MATCH(AQ24,BDКаб!$B$5:$B$12,0))*SQRT(1-AB24*AB24)),2))</f>
         <v>#N/A</v>
       </c>
       <c r="AE24" s="67" t="e">
@@ -5864,7 +6529,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AF24" s="67" t="e">
-        <f ca="1">IF(D24="","",AA24*SUMIFS($U$24:$U$12000,$BM$24:$BM$12000,BM24))</f>
+        <f ca="1">IF(D24="","",AA24*SUMIFS($U$24:$U$12000,$BV$24:$BV$12000,BV24))</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG24" s="67" t="e">
@@ -5880,8 +6545,8 @@
         <v>3</v>
       </c>
       <c r="AJ24" s="67" t="str">
-        <f>IF(D24="",IF(BQ24=0,"",IF(BQ24=O24,"",BQ24&amp;"."&amp;BR24)),'&lt;zlight&gt;DEVEXPORT'!E11&amp;"."&amp;'&lt;zlight&gt;DEVEXPORT'!F11)</f>
-        <v>GC_HeadDevice.GC_HDGroup</v>
+        <f>IF(D24="",IF(BZ24=0,"",IF(BZ24=O24,"",BZ24&amp;"."&amp;CA24)),'&lt;zlight&gt;DEVEXPORT'!E11&amp;"."&amp;'&lt;zlight&gt;DEVEXPORT'!F11)</f>
+        <v>SLCABAGEN1_HeadDeviceName.SLCABAGEN1_NGHeadDevice</v>
       </c>
       <c r="AK24" s="67" t="e">
         <f ca="1">IF(AJ24="","",AR24&amp;"-"&amp;AP24&amp;"х"&amp;AQ24&amp;"мм²")</f>
@@ -5929,321 +6594,321 @@
         <f ca="1">IF(AJ24="","",INDEX(BDКаб!$B$5:$B$12,MATCH(IF(AJ24="","",IF(D24="",T24,AE24)),INDIRECT("BDКаб!"&amp;HLOOKUP(AM24&amp;AN24&amp;AO24&amp;"I",BDКаб!$B$3:$AH$4,2,FALSE)),1)+1))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AX24" s="66" t="e">
-        <f ca="1">IF(E24="","",SUMIFS($AE$24:$AE$12000,$F$24:$F$12000,F24))</f>
+      <c r="AX24" s="114" t="str">
+        <f>IF(E24="","",E24)</f>
+        <v>АВ</v>
+      </c>
+      <c r="AY24" s="114">
+        <f>IF(F24="","",F24)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="114" t="e">
+        <f ca="1">IF(AE24="","",AE24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AY24" s="67" t="e">
-        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),MATCH(AH24*IF(F24="",AE24,AX24),INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),-1)))</f>
+      <c r="BA24" s="120" t="e">
+        <f ca="1">IF(AX24="","",IF(AY24="",AZ24,SUMIFS($AZ$24:$AZ$500000,$AY$24:$AY$500000,AY24)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AZ24" s="68" t="str">
+      <c r="BB24" s="114" t="e">
+        <f ca="1">IF(AX24="","",IF(P24&lt;380,1,3))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC24" s="113">
+        <f>IF(AX24="","",1.3)</f>
+        <v>1.3</v>
+      </c>
+      <c r="BD24" s="120" t="e">
+        <f ca="1">IF(AX24="","",IF(BC24="",BA24*1.3,BC24*BA24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE24" s="120" t="e">
+        <f ca="1">IF(AX24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(AX24&amp;"I",BD!$K$4:$BY$4,0))),MATCH(BD24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(AX24&amp;"I",BD!$K$4:$BY$4,0))),-1)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF24" s="111">
+        <f>IF(AX24="","",10)</f>
+        <v>10</v>
+      </c>
+      <c r="BG24" s="113"/>
+      <c r="BH24" s="120" t="e">
+        <f ca="1">IF(AX24="","",IF(BG24="",IF(BE24&gt;=BF24,BE24,BF24),BG24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BI24" s="68" t="str">
         <f>IF(E24="","","C")</f>
         <v>C</v>
       </c>
-      <c r="BA24" s="72" t="e">
+      <c r="BJ24" s="72" t="e">
         <f ca="1">IF(E24="","",IF(P24=380,3,1))</f>
         <v>#N/A</v>
       </c>
-      <c r="BB24" s="72" t="str">
+      <c r="BK24" s="72" t="str">
         <f>IF(E24="","","30")</f>
         <v>30</v>
       </c>
-      <c r="BC24" s="72" t="e">
-        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"О",BD!$K$4:$BY$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0))&amp;D24)</f>
+      <c r="BL24" s="72" t="e">
+        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"О",BD!$K$4:$BY$4,0))),MATCH(BE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0))&amp;D24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BD24" s="71" t="e">
-        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"М",BD!$K$4:$BY$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
+      <c r="BM24" s="71" t="e">
+        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"М",BD!$K$4:$BY$4,0))),MATCH(BE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BE24" t="e">
-        <f ca="1">IF(E24="","",BA24&amp;"P,"&amp;AY24&amp;"А,"&amp;AZ24&amp;IF(BB24="","",","&amp;BB24&amp;"мА"))</f>
+      <c r="BN24" t="e">
+        <f ca="1">IF(E24="","",BJ24&amp;"P,"&amp;BE24&amp;"А,"&amp;BI24&amp;IF(BK24="","",","&amp;BK24&amp;"мА"))</f>
         <v>#N/A</v>
       </c>
-      <c r="BF24" s="67" t="e">
+      <c r="BO24" s="67" t="e">
         <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),MATCH(AH24*AE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),-1)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BG24" s="68" t="str">
+      <c r="BP24" s="68" t="str">
         <f>IF(G24="","","C")</f>
         <v>C</v>
       </c>
-      <c r="BH24" s="72" t="str">
+      <c r="BQ24" s="72" t="str">
         <f>IF(G24="","","3")</f>
         <v>3</v>
       </c>
-      <c r="BI24" s="72" t="str">
+      <c r="BR24" s="72" t="str">
         <f>IF(G24="","","30")</f>
         <v>30</v>
       </c>
-      <c r="BJ24" s="72" t="e">
-        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"О",BD!$K$4:$CB$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0))&amp;D24)</f>
+      <c r="BS24" s="72" t="e">
+        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"О",BD!$K$4:$CB$4,0))),MATCH(BO24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0))&amp;D24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BK24" s="71" t="e">
-        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"М",BD!$K$4:$CB$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+      <c r="BT24" s="71" t="e">
+        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"М",BD!$K$4:$CB$4,0))),MATCH(BO24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BL24" t="e">
-        <f ca="1">IF(G24="","",BH24&amp;"P,"&amp;BF24&amp;"А,"&amp;BG24&amp;IF(BI24="","",","&amp;BI24&amp;"мА"))</f>
+      <c r="BU24" t="e">
+        <f ca="1">IF(G24="","",BQ24&amp;"P,"&amp;BO24&amp;"А,"&amp;BP24&amp;IF(BR24="","",","&amp;BR24&amp;"мА"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BM24" s="11" t="str">
+      <c r="BV24" s="11" t="str">
         <f>'&lt;zlight&gt;DEVEXPORT'!V11</f>
-        <v>GC_HDGroup</v>
-      </c>
-      <c r="BN24" s="11" t="e">
+        <v>SLCABAGEN1_NGHeadDevice</v>
+      </c>
+      <c r="BW24" s="11" t="e">
         <f ca="1">INDIRECT("'"&amp;O24&amp;"'!"&amp;"X14")</f>
         <v>#REF!</v>
       </c>
-      <c r="BO24" s="97">
-        <f>COUNT($BM$24:BM24)</f>
-        <v>0</v>
-      </c>
-      <c r="BP24" s="97">
+      <c r="BX24" s="97">
+        <f>COUNT($BV$24:BV24)</f>
+        <v>0</v>
+      </c>
+      <c r="BY24" s="97">
         <f>IF('&lt;zlight&gt;DEVEXPORT'!T11=0,'&lt;zlight&gt;DEVEXPORT'!T11,1)</f>
         <v>0</v>
       </c>
-      <c r="BQ24" s="97">
+      <c r="BZ24" s="97">
         <f>IF('&lt;zlight&gt;DEVEXPORT'!U11=0,0,'&lt;zlight&gt;DEVEXPORT'!U11)</f>
         <v>0</v>
       </c>
-      <c r="BR24" s="97">
+      <c r="CA24" s="97">
         <f>IF('&lt;zlight&gt;DEVEXPORT'!U11=0,0,'&lt;zlight&gt;DEVEXPORT'!F11)</f>
         <v>0</v>
       </c>
-      <c r="BS24" s="90">
-        <f>IF(MATCH(BM24,$BM$24:BM24,0)=COUNT($BM$24:BM24),COUNTIFS(F24:$F$120000,F24),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BT24" s="11">
-        <f>IF(INDEX($BS$24:BS24,MATCH(BM24,$BM$24:BM24,0))&gt;1,IF(BS24=0,2,1),IF(BS24=1,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="BU24" s="90" t="e">
-        <f>INDEX($BP$24:BP24,COUNT($BM$24:BM24)-1)</f>
+      <c r="CB24" s="90">
+        <f>IF(MATCH(BV24,$BV$24:BV24,0)=COUNT($BV$24:BV24),COUNTIFS(F24:$F$120000,F24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CC24" s="11">
+        <f>IF(INDEX($CB$24:CB24,MATCH(BV24,$BV$24:BV24,0))&gt;1,IF(CB24=0,2,1),IF(CB24=1,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="CD24" s="90" t="e">
+        <f>INDEX($BY$24:BY24,COUNT($BV$24:BV24)-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BV24" s="90">
-        <f>IF(INDEX($BP$24:$BP$120000,COUNT($BM$24:BM24))=1,IF(INDEX($BP$24:$BP$120000,COUNT($BM$24:BM24)+1)=1,1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BW24" s="100" t="e">
-        <f>IF(COUNT($BM$24:BM24)=1,1,IF(INDEX($BM$24:BM24,COUNT($BM$24:BM24)-1)=INDEX($BM$24:BM24,COUNT($BM$24:BM24)),0,COUNT($BM$24:BM24)))</f>
+      <c r="CE24" s="90">
+        <f>IF(INDEX($BY$24:$BY$120000,COUNT($BV$24:BV24))=1,IF(INDEX($BY$24:$BY$120000,COUNT($BV$24:BV24)+1)=1,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CF24" s="100" t="e">
+        <f>IF(COUNT($BV$24:BV24)=1,1,IF(INDEX($BV$24:BV24,COUNT($BV$24:BV24)-1)=INDEX($BV$24:BV24,COUNT($BV$24:BV24)),0,COUNT($BV$24:BV24)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BX24" s="100" t="e">
-        <f>IF(BW24&gt;0,ROW(),"-")</f>
+      <c r="CG24" s="100" t="e">
+        <f>IF(CF24&gt;0,ROW(),"-")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BY24" s="100">
-        <f>IF(BQ24=0,0,SUMIFS(BP24:$BP$120000,BQ24:$BQ$120000,BQ24))</f>
-        <v>0</v>
-      </c>
-      <c r="BZ24" s="100" t="e">
-        <f ca="1">IF(COUNTIF(INDIRECT(ADDRESS(ROW(),COLUMN(BQ24))&amp;":"&amp;ADDRESS(MIN(BX24:$BX$120000),COLUMN(BQ24))),0)&gt;1,1,0)</f>
+      <c r="CH24" s="100">
+        <f>IF(BZ24=0,0,SUMIFS(BY24:$BY$120000,BZ24:$BZ$120000,BZ24))</f>
+        <v>0</v>
+      </c>
+      <c r="CI24" s="100" t="e">
+        <f ca="1">IF(COUNTIF(INDIRECT(ADDRESS(ROW(),COLUMN(BZ24))&amp;":"&amp;ADDRESS(MIN(CG24:$CG$120000),COLUMN(BZ24))),0)&gt;1,1,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="CA24" s="90" t="e">
-        <f>IF(BO24=1,0,IF(INDEX($BM$24:BM24,BO24-1)=BM24,IF(INDEX($BQ$24:BQ24,BO24-1)=BQ24,IF(INDEX($BR$24:BR24,BO24-1)=BR24,1,0),0),0))</f>
+      <c r="CJ24" s="90" t="e">
+        <f>IF(BX24=1,0,IF(INDEX($BV$24:BV24,BX24-1)=BV24,IF(INDEX($BZ$24:BZ24,BX24-1)=BZ24,IF(INDEX($CA$24:CA24,BX24-1)=CA24,1,0),0),0))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="CB24" s="94">
+      <c r="CK24" s="94">
         <f>MATCH(1,J24:L24,0)</f>
         <v>1</v>
       </c>
-      <c r="CC24" s="101" t="e">
-        <f>IF(BO24&lt;&gt;1,INDEX($CC$24:CC24,BO24-1)+25 - IF(BP24=0,IF(BU24=1,IF(BY24&lt;2,25,0),0),0),60)</f>
+      <c r="CL24" s="101" t="e">
+        <f>IF(BX24&lt;&gt;1,INDEX($CL$24:CL24,BX24-1)+25 - IF(BY24=0,IF(CD24=1,IF(CH24&lt;2,25,0),0),0),60)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="CD24" t="s">
+      <c r="CM24" t="s">
         <v>59</v>
       </c>
-      <c r="CE24" s="1" t="s">
+      <c r="CN24" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="CF24" s="1" t="e">
-        <f>CC24</f>
+      <c r="CO24" s="1" t="e">
+        <f>CL24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="CG24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH24" s="1">
+      <c r="CP24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ24" s="1">
         <v>1</v>
       </c>
-      <c r="CI24" s="1">
+      <c r="CR24" s="1">
         <v>1</v>
       </c>
-      <c r="CJ24" s="1" t="s">
+      <c r="CS24" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="CK24" s="1" t="e">
+      <c r="CT24" s="1" t="e">
         <f ca="1">IF(Q24="ABC","BOOLEAN_1","BOOLEAN_0")</f>
         <v>#N/A</v>
       </c>
-      <c r="CL24" s="1" t="s">
+      <c r="CU24" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="CM24" s="1" t="e">
-        <f ca="1">IF(H24&lt;&gt;"","INTEGER_0",IF(BS24=0,IF(BT24=0,"INTEGER_3","INTEGER_"&amp;BT24),"INTEGER_"&amp;BT24))</f>
+      <c r="CV24" s="1" t="e">
+        <f ca="1">IF(H24&lt;&gt;"","INTEGER_0",IF(CB24=0,IF(CC24=0,"INTEGER_3","INTEGER_"&amp;CC24),"INTEGER_"&amp;CC24))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="CN24" s="92" t="s">
+      <c r="CW24" s="92" t="s">
         <v>338</v>
       </c>
-      <c r="CO24" s="1" t="str">
-        <f t="shared" ref="CO24" ca="1" si="0">IFERROR(_xlfn.IFS(CM24="INTEGER_0","INTEGER_0",CM24="INTEGER_1","INTEGER_0",IF(BU24=1,IF(CB24=1,1,0),0),"INTEGER_1",IF(BP24=1,IF(BU24=1,1,0),0),"INTEGER_2",IF(BP24=0,IF(BU24=1,1,0),0),"INTEGER_0",IF(BU24=1,IF(CB24=2,IF(BQ24=0,IF(BZ24=0,1,0),0),0),0),"INTEGER_2",IF(BU24=1,IF(CB24=2,IF(BQ24=0,IF(BZ24&lt;&gt;0,1,0),0),0),0),"INTEGER_4",IF(BU24=1,IF(CB24=2,IF(BQ24&lt;&gt;0,1,0),0),0),"INTEGER_3",IF(BU24=0,IF(BP24=1,IF(CA24=1,1,0),0),0),"INTEGER_5"),"INTEGER_0")</f>
+      <c r="CX24" s="1" t="str">
+        <f t="shared" ref="CX24" ca="1" si="0">IFERROR(_xlfn.IFS(CV24="INTEGER_0","INTEGER_0",CV24="INTEGER_1","INTEGER_0",IF(CD24=1,IF(CK24=1,1,0),0),"INTEGER_1",IF(BY24=1,IF(CD24=1,1,0),0),"INTEGER_2",IF(BY24=0,IF(CD24=1,1,0),0),"INTEGER_0",IF(CD24=1,IF(CK24=2,IF(BZ24=0,IF(CI24=0,1,0),0),0),0),"INTEGER_2",IF(CD24=1,IF(CK24=2,IF(BZ24=0,IF(CI24&lt;&gt;0,1,0),0),0),0),"INTEGER_4",IF(CD24=1,IF(CK24=2,IF(BZ24&lt;&gt;0,1,0),0),0),"INTEGER_3",IF(CD24=0,IF(BY24=1,IF(CJ24=1,1,0),0),0),"INTEGER_5"),"INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
-      <c r="CP24" s="92" t="s">
+      <c r="CY24" s="92" t="s">
         <v>339</v>
       </c>
-      <c r="CQ24" s="1" t="str">
-        <f t="shared" ref="CQ24" si="1">"INTEGER_0"</f>
+      <c r="CZ24" s="1" t="str">
+        <f t="shared" ref="CZ24" si="1">"INTEGER_0"</f>
         <v>INTEGER_0</v>
       </c>
-      <c r="CR24" s="92" t="s">
+      <c r="DA24" s="92" t="s">
         <v>340</v>
       </c>
-      <c r="CS24" s="1" t="str">
-        <f t="shared" ref="CS24" ca="1" si="2">IFERROR(_xlfn.IFS(CM24="INTEGER_0","INTEGER_4",CM24="INTEGER_1","INTEGER_4",IF(BP24=1,IF(BU24=1,1,0),0),"INTEGER_2",CO24="INTEGER_5","INTEGER_3"),"INTEGER_0")</f>
+      <c r="DB24" s="1" t="str">
+        <f t="shared" ref="DB24" ca="1" si="2">IFERROR(_xlfn.IFS(CV24="INTEGER_0","INTEGER_4",CV24="INTEGER_1","INTEGER_4",IF(BY24=1,IF(CD24=1,1,0),0),"INTEGER_2",CX24="INTEGER_5","INTEGER_3"),"INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
-      <c r="CT24" s="92" t="s">
+      <c r="DC24" s="92" t="s">
         <v>341</v>
       </c>
-      <c r="CU24" s="1" t="str">
-        <f ca="1">IFERROR(_xlfn.IFS(BP24=1,"INTEGER_0",I24&lt;&gt;"","INTEGER_0",H24&lt;&gt;"","INTEGER_0",IF(BU24=1,1,0),"INTEGER_0",IF(BP24=0,IF(BU24=0,IF(AJ24="",1,0),0),0),"INTEGER_3",IF(BP24=0,IF(BU24=0,IF(AJ24=INDEX($AJ$24:AJ24,BO24-1),1,0),0),0),"INTEGER_3"),"INTEGER_0")</f>
+      <c r="DD24" s="1" t="str">
+        <f ca="1">IFERROR(_xlfn.IFS(BY24=1,"INTEGER_0",I24&lt;&gt;"","INTEGER_0",H24&lt;&gt;"","INTEGER_0",IF(CD24=1,1,0),"INTEGER_0",IF(BY24=0,IF(CD24=0,IF(AJ24="",1,0),0),0),"INTEGER_3",IF(BY24=0,IF(CD24=0,IF(AJ24=INDEX($AJ$24:AJ24,BX24-1),1,0),0),0),"INTEGER_3"),"INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
-      <c r="CV24" s="92" t="s">
+      <c r="DE24" s="92" t="s">
         <v>342</v>
       </c>
-      <c r="CW24" s="1" t="str">
-        <f t="shared" ref="CW24" si="3">IF(BV24=0,"INTEGER_0","INTEGER_0")</f>
+      <c r="DF24" s="1" t="str">
+        <f t="shared" ref="DF24" si="3">IF(CE24=0,"INTEGER_0","INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
-      <c r="CX24" s="92" t="s">
+      <c r="DG24" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="CY24" s="1" t="str">
-        <f ca="1">IFERROR(_xlfn.IFS(IF(BP24=1,1,0),"INTEGER_0",I24&lt;&gt;"","INTEGER_5",H24&lt;&gt;"","INTEGER_5",CU24="INTEGER_3","INTEGER_3",IF(BU24=1,IF(BP24=0,1,0),0),"INTEGER_5",IF(AJ24=INDEX($AJ$24:AJ24,BO24-1),1,0),"INTEGER_5"),"INTEGER_0")</f>
+      <c r="DH24" s="1" t="str">
+        <f ca="1">IFERROR(_xlfn.IFS(IF(BY24=1,1,0),"INTEGER_0",I24&lt;&gt;"","INTEGER_5",H24&lt;&gt;"","INTEGER_5",DD24="INTEGER_3","INTEGER_3",IF(CD24=1,IF(BY24=0,1,0),0),"INTEGER_5",IF(AJ24=INDEX($AJ$24:AJ24,BX24-1),1,0),"INTEGER_5"),"INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
-      <c r="CZ24" s="1" t="s">
+      <c r="DI24" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="DA24" s="1" t="str">
+      <c r="DJ24" s="1" t="str">
         <f>IF(W24&gt;1,O24&amp;"("&amp;W24&amp;"шт.)",O24)</f>
         <v>NMO_BaseName</v>
       </c>
-      <c r="DB24" s="1" t="s">
+      <c r="DK24" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="DC24" s="1" t="e">
+      <c r="DL24" s="1" t="e">
         <f ca="1">R24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DD24" s="1" t="s">
+      <c r="DM24" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="DE24" s="1" t="e">
+      <c r="DN24" s="1" t="e">
         <f ca="1">T24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DF24" s="1" t="s">
+      <c r="DO24" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="DG24" s="1" t="e">
+      <c r="DP24" s="1" t="e">
         <f ca="1">Z24&amp;"\P~"&amp;P24&amp;"V"</f>
         <v>#N/A</v>
       </c>
-      <c r="DH24" s="103" t="s">
+      <c r="DQ24" s="103" t="s">
         <v>357</v>
       </c>
-      <c r="DI24" s="103" t="str">
+      <c r="DR24" s="103" t="str">
         <f>AJ24</f>
-        <v>GC_HeadDevice.GC_HDGroup</v>
-      </c>
-      <c r="DJ24" s="103" t="s">
+        <v>SLCABAGEN1_HeadDeviceName.SLCABAGEN1_NGHeadDevice</v>
+      </c>
+      <c r="DS24" s="103" t="s">
         <v>358</v>
       </c>
-      <c r="DK24" s="103" t="s">
+      <c r="DT24" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="DL24" s="103" t="s">
+      <c r="DU24" s="103" t="s">
         <v>360</v>
       </c>
-      <c r="DM24" s="103" t="s">
+      <c r="DV24" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="DN24" s="103" t="s">
+      <c r="DW24" s="103" t="s">
         <v>361</v>
       </c>
-      <c r="DO24" s="103" t="e">
+      <c r="DX24" s="103" t="e">
         <f ca="1">AK24</f>
         <v>#N/A</v>
       </c>
-      <c r="DP24" s="103" t="str">
+      <c r="DY24" s="103" t="str">
         <f>"VSCHEMACable22"</f>
         <v>VSCHEMACable22</v>
       </c>
-      <c r="DQ24" s="103" t="str">
+      <c r="DZ24" s="103" t="str">
         <f>IF(AL24&lt;&gt;"","L="&amp;AL24&amp;"м"," ")</f>
         <v>L=0м</v>
       </c>
-      <c r="DR24" t="s">
+      <c r="EA24" t="s">
         <v>58</v>
       </c>
-      <c r="DS24" t="e">
+      <c r="EB24" t="e">
         <f ca="1">IF(H24&lt;&gt;"","&lt;zinsertblock&gt;","")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DT24" s="1" t="e">
-        <f ca="1">IF(DS24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"UGO",BD!$K$4:$BY$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
+      <c r="EC24" s="1" t="e">
+        <f ca="1">IF(EB24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"UGO",BD!$K$4:$BY$4,0))),MATCH(BE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DU24" s="1" t="e">
-        <f ca="1">IF(DS24="","",CF24+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"MOVEX",BD!$K$4:$BY$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
+      <c r="ED24" s="1" t="e">
+        <f ca="1">IF(EB24="","",CO24+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"MOVEX",BD!$K$4:$BY$4,0))),MATCH(BE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DV24" s="1" t="e">
-        <f ca="1">IF(DS24="","",CG24+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"MOVEY",BD!$K$4:$BY$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="DW24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DX24" s="1">
-        <v>1</v>
-      </c>
-      <c r="DY24" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="DZ24" s="1" t="e">
-        <f ca="1">BC24&amp;"\P"&amp;BD24&amp;"\P"&amp;BE24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="EA24" t="e">
-        <f ca="1">IF(DS24="","","&lt;/zinsertblock&gt;")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="EB24" t="e">
-        <f ca="1">IF(I24&lt;&gt;"","&lt;zinsertblock&gt;","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="EC24" s="1" t="e">
-        <f ca="1">IF(EB24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"UGO",BD!$K$4:$CB$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="ED24" s="1" t="e">
-        <f ca="1">IF(EB24="","",CF24+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"MOVEX",BD!$K$4:$CB$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="EE24" s="1" t="e">
-        <f ca="1">IF(EB24="","",CG24-20+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"MOVEY",BD!$K$4:$CB$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+        <f ca="1">IF(EB24="","",CP24+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"MOVEY",BD!$K$4:$BY$4,0))),MATCH(BE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
         <v>#VALUE!</v>
       </c>
       <c r="EF24" s="1">
@@ -6256,17 +6921,89 @@
         <v>368</v>
       </c>
       <c r="EI24" s="1" t="e">
-        <f ca="1">BJ24&amp;"\P"&amp;BK24&amp;"\P"&amp;BL24</f>
+        <f ca="1">BL24&amp;"\P"&amp;BM24&amp;"\P"&amp;BN24</f>
         <v>#VALUE!</v>
       </c>
       <c r="EJ24" t="e">
         <f ca="1">IF(EB24="","","&lt;/zinsertblock&gt;")</f>
         <v>#VALUE!</v>
       </c>
+      <c r="EK24" t="e">
+        <f ca="1">IF(I24&lt;&gt;"","&lt;zinsertblock&gt;","")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EL24" s="1" t="e">
+        <f ca="1">IF(EK24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"UGO",BD!$K$4:$CB$4,0))),MATCH(BO24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EM24" s="1" t="e">
+        <f ca="1">IF(EK24="","",CO24+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"MOVEX",BD!$K$4:$CB$4,0))),MATCH(BO24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EN24" s="1" t="e">
+        <f ca="1">IF(EK24="","",CP24-20+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"MOVEY",BD!$K$4:$CB$4,0))),MATCH(BO24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EO24" s="1">
+        <v>1</v>
+      </c>
+      <c r="EP24" s="1">
+        <v>1</v>
+      </c>
+      <c r="EQ24" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="ER24" s="1" t="e">
+        <f ca="1">BS24&amp;"\P"&amp;BT24&amp;"\P"&amp;BU24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="ES24" t="e">
+        <f ca="1">IF(EK24="","","&lt;/zinsertblock&gt;")</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="BW21:BX21"/>
+    <mergeCell ref="EB23:EJ23"/>
+    <mergeCell ref="EK23:ES23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="BV22:CG23"/>
+    <mergeCell ref="AA22:AI22"/>
+    <mergeCell ref="AJ22:AW22"/>
+    <mergeCell ref="BO22:BU22"/>
+    <mergeCell ref="AX22:BN22"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="O22:Z22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:U10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="CF21:CG21"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="P14:S14"/>
     <mergeCell ref="P12:S12"/>
@@ -6277,45 +7014,6 @@
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="P15:S15"/>
     <mergeCell ref="T15:U15"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="T9:U10"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="O22:Z22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="DS23:EA23"/>
-    <mergeCell ref="EB23:EJ23"/>
-    <mergeCell ref="AX22:BE22"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="BM22:BX23"/>
-    <mergeCell ref="AA22:AI22"/>
-    <mergeCell ref="AJ22:AW22"/>
-    <mergeCell ref="BF22:BL22"/>
   </mergeCells>
   <conditionalFormatting sqref="P24">
     <cfRule type="expression" dxfId="102" priority="332">
@@ -6378,12 +7076,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM24">
+  <conditionalFormatting sqref="CV24">
     <cfRule type="cellIs" dxfId="89" priority="126" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM24">
+  <conditionalFormatting sqref="CV24">
     <cfRule type="cellIs" dxfId="88" priority="121" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6400,12 +7098,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CN24">
+  <conditionalFormatting sqref="CW24">
     <cfRule type="cellIs" dxfId="83" priority="120" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CN24">
+  <conditionalFormatting sqref="CW24">
     <cfRule type="cellIs" dxfId="82" priority="115" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6422,12 +7120,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO24">
+  <conditionalFormatting sqref="CX24">
     <cfRule type="cellIs" dxfId="77" priority="114" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO24">
+  <conditionalFormatting sqref="CX24">
     <cfRule type="cellIs" dxfId="76" priority="109" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6444,12 +7142,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CP24">
+  <conditionalFormatting sqref="CY24">
     <cfRule type="cellIs" dxfId="71" priority="108" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CP24">
+  <conditionalFormatting sqref="CY24">
     <cfRule type="cellIs" dxfId="70" priority="103" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6466,12 +7164,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CQ24">
+  <conditionalFormatting sqref="CZ24">
     <cfRule type="cellIs" dxfId="65" priority="102" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CQ24">
+  <conditionalFormatting sqref="CZ24">
     <cfRule type="cellIs" dxfId="64" priority="97" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6488,12 +7186,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CR24">
+  <conditionalFormatting sqref="DA24">
     <cfRule type="cellIs" dxfId="59" priority="96" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CR24">
+  <conditionalFormatting sqref="DA24">
     <cfRule type="cellIs" dxfId="58" priority="91" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6510,12 +7208,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CS24">
+  <conditionalFormatting sqref="DB24">
     <cfRule type="cellIs" dxfId="53" priority="90" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CS24">
+  <conditionalFormatting sqref="DB24">
     <cfRule type="cellIs" dxfId="52" priority="85" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6532,12 +7230,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CT24">
+  <conditionalFormatting sqref="DC24">
     <cfRule type="cellIs" dxfId="47" priority="84" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CT24">
+  <conditionalFormatting sqref="DC24">
     <cfRule type="cellIs" dxfId="46" priority="79" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6554,12 +7252,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CV24">
+  <conditionalFormatting sqref="DE24">
     <cfRule type="cellIs" dxfId="41" priority="72" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CV24">
+  <conditionalFormatting sqref="DE24">
     <cfRule type="cellIs" dxfId="40" priority="67" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6576,12 +7274,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CW24">
+  <conditionalFormatting sqref="DF24">
     <cfRule type="cellIs" dxfId="35" priority="66" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CW24">
+  <conditionalFormatting sqref="DF24">
     <cfRule type="cellIs" dxfId="34" priority="61" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6598,12 +7296,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CU24">
+  <conditionalFormatting sqref="DD24">
     <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CU24">
+  <conditionalFormatting sqref="DD24">
     <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6620,12 +7318,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CX24">
+  <conditionalFormatting sqref="DG24">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CX24">
+  <conditionalFormatting sqref="DG24">
     <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6642,12 +7340,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CY24">
+  <conditionalFormatting sqref="DH24">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CY24">
+  <conditionalFormatting sqref="DH24">
     <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6664,12 +7362,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CZ24">
+  <conditionalFormatting sqref="DI24">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CZ24">
+  <conditionalFormatting sqref="DI24">
     <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6686,12 +7384,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DA24:DQ24">
+  <conditionalFormatting sqref="DJ24:DZ24">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DA24:DQ24">
+  <conditionalFormatting sqref="DJ24:DZ24">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6714,12 +7412,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772FECD8-F93D-41DA-984E-EC1C5AEE2748}">
   <dimension ref="B5:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6734,7 +7432,8 @@
     <col min="10" max="14" width="19.140625" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" customWidth="1"/>
     <col min="18" max="18" width="12.140625" customWidth="1"/>
-    <col min="19" max="22" width="16.28515625" customWidth="1"/>
+    <col min="19" max="21" width="16.28515625" customWidth="1"/>
+    <col min="22" max="22" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
@@ -6847,10 +7546,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
+        <v>381</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>6</v>
+        <v>380</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>345</v>
@@ -6894,7 +7593,7 @@
       </c>
       <c r="S11" s="1">
         <f>IF(G11&lt;&gt;"Вкл",IF(F11&lt;&gt;"GC_HDGroup",IF(R11=1,1,0),0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
         <f>IFERROR(IF(MATCH(D11,$E$11:$E$12000,0)&gt;0,D11,0),0)</f>
@@ -6904,9 +7603,8 @@
         <f>IFERROR(IF(MATCH(E11,$D$11:D11,0)&gt;0,INDEX($D$11:D11,MATCH(E11,$D$11:D11,0)),0),0)</f>
         <v>0</v>
       </c>
-      <c r="V11" s="1" t="str">
-        <f>IF(IFERROR(MATCH(E11,$D$11:D11,0),0)&gt;0,INDEX($V$11:V11,MATCH(E11,$D$11:D11,0)),F11)</f>
-        <v>GC_HDGroup</v>
+      <c r="V11" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="W11" t="s">
         <v>3</v>
@@ -6917,7 +7615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2652C0-E32A-4424-80F0-EAFBD7621661}">
   <dimension ref="C3:O5"/>
   <sheetViews>
@@ -7014,6 +7712,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A1BDDE-60BA-44D5-BCC5-6893FF63103C}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5946069B-84EF-483E-B2A7-62FC8EF81A67}">
   <dimension ref="B3:Z5"/>
   <sheetViews>
@@ -7219,7 +7950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE1986-1CF6-4370-AEB3-1DC97E00D4E1}">
   <dimension ref="C4:G5"/>
   <sheetViews>
@@ -7262,12 +7993,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A712ECE2-33D4-468C-AC42-3438B4F27DC9}">
   <dimension ref="A2:BX67"/>
   <sheetViews>
-    <sheetView topLeftCell="BA3" workbookViewId="0">
-      <selection activeCell="BI15" sqref="BI15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T16" sqref="T15:T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7281,84 +8012,84 @@
   <sheetData>
     <row r="2" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:76" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="F3" s="109" t="s">
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="F3" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="110"/>
-      <c r="H3" s="111"/>
-      <c r="K3" s="114" t="s">
+      <c r="G3" s="127"/>
+      <c r="H3" s="128"/>
+      <c r="K3" s="131" t="s">
         <v>193</v>
       </c>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="115"/>
-      <c r="AJ3" s="115"/>
-      <c r="AK3" s="115"/>
-      <c r="AL3" s="115"/>
-      <c r="AM3" s="115"/>
-      <c r="AN3" s="115"/>
-      <c r="AO3" s="115"/>
-      <c r="AP3" s="115"/>
-      <c r="AQ3" s="115"/>
-      <c r="AR3" s="115"/>
-      <c r="AS3" s="115"/>
-      <c r="AT3" s="115"/>
-      <c r="AU3" s="115"/>
-      <c r="AV3" s="115"/>
-      <c r="AW3" s="115"/>
-      <c r="AX3" s="115"/>
-      <c r="AY3" s="115"/>
-      <c r="AZ3" s="115"/>
-      <c r="BA3" s="115"/>
-      <c r="BB3" s="115"/>
-      <c r="BC3" s="115"/>
-      <c r="BD3" s="115"/>
-      <c r="BE3" s="115"/>
-      <c r="BF3" s="115"/>
-      <c r="BG3" s="115"/>
-      <c r="BH3" s="115"/>
-      <c r="BI3" s="115"/>
-      <c r="BJ3" s="115"/>
-      <c r="BK3" s="115"/>
-      <c r="BL3" s="115"/>
-      <c r="BM3" s="115"/>
-      <c r="BN3" s="115"/>
-      <c r="BO3" s="115"/>
-      <c r="BP3" s="115"/>
-      <c r="BQ3" s="115"/>
-      <c r="BR3" s="115"/>
-      <c r="BS3" s="115"/>
-      <c r="BT3" s="115"/>
-      <c r="BU3" s="115"/>
-      <c r="BV3" s="115"/>
-      <c r="BW3" s="115"/>
-      <c r="BX3" s="115"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="132"/>
+      <c r="AD3" s="132"/>
+      <c r="AE3" s="132"/>
+      <c r="AF3" s="132"/>
+      <c r="AG3" s="132"/>
+      <c r="AH3" s="132"/>
+      <c r="AI3" s="132"/>
+      <c r="AJ3" s="132"/>
+      <c r="AK3" s="132"/>
+      <c r="AL3" s="132"/>
+      <c r="AM3" s="132"/>
+      <c r="AN3" s="132"/>
+      <c r="AO3" s="132"/>
+      <c r="AP3" s="132"/>
+      <c r="AQ3" s="132"/>
+      <c r="AR3" s="132"/>
+      <c r="AS3" s="132"/>
+      <c r="AT3" s="132"/>
+      <c r="AU3" s="132"/>
+      <c r="AV3" s="132"/>
+      <c r="AW3" s="132"/>
+      <c r="AX3" s="132"/>
+      <c r="AY3" s="132"/>
+      <c r="AZ3" s="132"/>
+      <c r="BA3" s="132"/>
+      <c r="BB3" s="132"/>
+      <c r="BC3" s="132"/>
+      <c r="BD3" s="132"/>
+      <c r="BE3" s="132"/>
+      <c r="BF3" s="132"/>
+      <c r="BG3" s="132"/>
+      <c r="BH3" s="132"/>
+      <c r="BI3" s="132"/>
+      <c r="BJ3" s="132"/>
+      <c r="BK3" s="132"/>
+      <c r="BL3" s="132"/>
+      <c r="BM3" s="132"/>
+      <c r="BN3" s="132"/>
+      <c r="BO3" s="132"/>
+      <c r="BP3" s="132"/>
+      <c r="BQ3" s="132"/>
+      <c r="BR3" s="132"/>
+      <c r="BS3" s="132"/>
+      <c r="BT3" s="132"/>
+      <c r="BU3" s="132"/>
+      <c r="BV3" s="132"/>
+      <c r="BW3" s="132"/>
+      <c r="BX3" s="132"/>
     </row>
     <row r="4" spans="1:76" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -8429,10 +9160,10 @@
       <c r="BX8" s="10"/>
     </row>
     <row r="9" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="113"/>
+      <c r="B9" s="130"/>
       <c r="F9" s="36">
         <v>2500</v>
       </c>
@@ -13447,11 +14178,11 @@
     </row>
     <row r="41" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="109" t="s">
+      <c r="F42" s="126" t="s">
         <v>186</v>
       </c>
-      <c r="G42" s="110"/>
-      <c r="H42" s="111"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="128"/>
     </row>
     <row r="43" spans="6:76" ht="31.5" x14ac:dyDescent="0.25">
       <c r="F43" s="45" t="s">
@@ -13679,7 +14410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B6AA6F-5182-413B-A37A-EA05D8E4268E}">
   <dimension ref="B1:AH12"/>
   <sheetViews>
@@ -13691,41 +14422,41 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="116"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="132"/>
+      <c r="AH2" s="133"/>
     </row>
     <row r="3" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="54" t="s">
@@ -14649,7 +15380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848FBB42-6EAE-4F08-93DD-9279D3853880}">
   <dimension ref="A1:R10"/>
   <sheetViews>
@@ -14666,49 +15397,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
       <c r="B2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="119"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="136"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
@@ -15156,7 +15887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D3B741-841A-4380-8CF6-69D9C360B6A6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -15184,7 +15915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E9D57B-03FA-4732-B562-B52ADE28B03D}">
   <dimension ref="B1:I5"/>
   <sheetViews>
@@ -15204,20 +15935,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -15278,235 +16009,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFBE0E3-93E9-4D98-927D-A8C9FCC59321}">
-  <dimension ref="E8:P22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="8" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E8" s="121" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
-    </row>
-    <row r="9" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="121"/>
-    </row>
-    <row r="10" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-    </row>
-    <row r="11" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="121"/>
-    </row>
-    <row r="12" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
-    </row>
-    <row r="13" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="121"/>
-    </row>
-    <row r="14" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="121"/>
-    </row>
-    <row r="15" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="121"/>
-    </row>
-    <row r="16" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="121"/>
-    </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
-    </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="121"/>
-    </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="121"/>
-    </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="121"/>
-    </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-    </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="121"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E8:P22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO3.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5B0134-A675-4863-A254-1F073686E560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42A218E-CA3B-49A8-8221-75EE40775C87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="32565" windowHeight="17700" activeTab="12" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
@@ -3531,50 +3531,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3598,72 +3620,50 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5473,7 +5473,7 @@
   <dimension ref="C1:ES24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AD26" sqref="AD26"/>
+      <selection activeCell="T8" sqref="T8:U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5549,25 +5549,25 @@
       </c>
     </row>
     <row r="4" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="168" t="s">
         <v>283</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
       <c r="I4" s="84" t="s">
         <v>284</v>
       </c>
       <c r="O4" s="84"/>
-      <c r="P4" s="149" t="s">
+      <c r="P4" s="168" t="s">
         <v>285</v>
       </c>
-      <c r="Q4" s="149"/>
-      <c r="R4" s="149"/>
-      <c r="S4" s="149"/>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="168"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="168"/>
+      <c r="U4" s="168"/>
       <c r="AD4" s="113">
         <v>1234</v>
       </c>
@@ -5576,12 +5576,12 @@
       </c>
     </row>
     <row r="5" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D5" s="141" t="s">
+      <c r="D5" s="162" t="s">
         <v>286</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
       <c r="H5" s="78" t="str">
         <f>'&lt;zlight&gt;'!F18</f>
         <v>NMO_Name</v>
@@ -5592,17 +5592,17 @@
       <c r="O5" s="82" t="s">
         <v>288</v>
       </c>
-      <c r="P5" s="150" t="s">
+      <c r="P5" s="163" t="s">
         <v>289</v>
       </c>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="150"/>
-      <c r="S5" s="150"/>
-      <c r="T5" s="150" t="e">
+      <c r="Q5" s="163"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
+      <c r="T5" s="163" t="e">
         <f ca="1">SUM($AC$24:$AC$12000)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U5" s="150"/>
+      <c r="U5" s="163"/>
       <c r="AD5" s="114">
         <v>1234</v>
       </c>
@@ -5611,12 +5611,12 @@
       </c>
     </row>
     <row r="6" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D6" s="141" t="s">
+      <c r="D6" s="162" t="s">
         <v>290</v>
       </c>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
       <c r="H6" s="79" t="s">
         <v>291</v>
       </c>
@@ -5626,17 +5626,17 @@
       <c r="O6" s="82">
         <v>63</v>
       </c>
-      <c r="P6" s="150" t="s">
+      <c r="P6" s="163" t="s">
         <v>293</v>
       </c>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="150"/>
-      <c r="S6" s="150"/>
-      <c r="T6" s="150" t="e">
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
+      <c r="T6" s="163" t="e">
         <f ca="1">T5*T11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U6" s="150"/>
+      <c r="U6" s="163"/>
       <c r="AD6" s="115">
         <v>380</v>
       </c>
@@ -5645,12 +5645,12 @@
       </c>
     </row>
     <row r="7" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D7" s="141" t="s">
+      <c r="D7" s="162" t="s">
         <v>294</v>
       </c>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
       <c r="H7" s="79">
         <v>45399</v>
       </c>
@@ -5660,17 +5660,17 @@
       <c r="O7" s="82">
         <v>32</v>
       </c>
-      <c r="P7" s="150" t="s">
+      <c r="P7" s="163" t="s">
         <v>296</v>
       </c>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150" t="e">
-        <f ca="1">SUM($AE$24:$AE$12000)*T11</f>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="163"/>
+      <c r="T7" s="163" t="e">
+        <f ca="1">ROUNDUP((T6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*T8),2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U7" s="150"/>
+      <c r="U7" s="163"/>
       <c r="AD7" s="116">
         <v>123.4</v>
       </c>
@@ -5679,12 +5679,12 @@
       </c>
     </row>
     <row r="8" spans="4:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="162" t="s">
         <v>297</v>
       </c>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
       <c r="H8" s="79" t="s">
         <v>298</v>
       </c>
@@ -5694,16 +5694,16 @@
       <c r="O8" s="82">
         <v>6</v>
       </c>
-      <c r="P8" s="151" t="s">
+      <c r="P8" s="165" t="s">
         <v>319</v>
       </c>
-      <c r="Q8" s="152"/>
-      <c r="R8" s="152"/>
-      <c r="S8" s="153"/>
-      <c r="T8" s="145">
+      <c r="Q8" s="166"/>
+      <c r="R8" s="166"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="164">
         <v>0.92</v>
       </c>
-      <c r="U8" s="145"/>
+      <c r="U8" s="164"/>
       <c r="AD8" s="120">
         <v>123</v>
       </c>
@@ -5712,12 +5712,12 @@
       </c>
     </row>
     <row r="9" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D9" s="141" t="s">
+      <c r="D9" s="162" t="s">
         <v>301</v>
       </c>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
       <c r="H9" s="79" t="s">
         <v>302</v>
       </c>
@@ -5727,14 +5727,14 @@
       <c r="O9" s="82" t="s">
         <v>304</v>
       </c>
-      <c r="P9" s="144" t="s">
+      <c r="P9" s="169" t="s">
         <v>300</v>
       </c>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="145"/>
-      <c r="U9" s="145"/>
+      <c r="Q9" s="169"/>
+      <c r="R9" s="169"/>
+      <c r="S9" s="169"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="164"/>
       <c r="AD9" s="119">
         <v>123</v>
       </c>
@@ -5747,24 +5747,24 @@
       </c>
     </row>
     <row r="10" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D10" s="141" t="s">
+      <c r="D10" s="162" t="s">
         <v>305</v>
       </c>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
       <c r="I10" s="82" t="s">
         <v>306</v>
       </c>
       <c r="O10" s="82">
         <v>4</v>
       </c>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="145"/>
-      <c r="U10" s="145"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="164"/>
+      <c r="U10" s="164"/>
       <c r="AD10" s="121">
         <v>123</v>
       </c>
@@ -5777,12 +5777,12 @@
       </c>
     </row>
     <row r="11" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D11" s="141" t="s">
+      <c r="D11" s="162" t="s">
         <v>321</v>
       </c>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
       <c r="H11" s="79">
         <v>380</v>
       </c>
@@ -5792,16 +5792,16 @@
       <c r="O11" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="P11" s="146" t="s">
+      <c r="P11" s="171" t="s">
         <v>310</v>
       </c>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="146">
+      <c r="Q11" s="172"/>
+      <c r="R11" s="172"/>
+      <c r="S11" s="173"/>
+      <c r="T11" s="171">
         <v>0.65</v>
       </c>
-      <c r="U11" s="148"/>
+      <c r="U11" s="173"/>
       <c r="AD11" s="122">
         <v>123</v>
       </c>
@@ -5810,12 +5810,12 @@
       </c>
     </row>
     <row r="12" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D12" s="141" t="s">
+      <c r="D12" s="162" t="s">
         <v>307</v>
       </c>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
       <c r="H12" s="79" t="s">
         <v>320</v>
       </c>
@@ -5825,16 +5825,16 @@
       <c r="O12" s="82" t="s">
         <v>313</v>
       </c>
-      <c r="P12" s="142" t="s">
+      <c r="P12" s="170" t="s">
         <v>314</v>
       </c>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="142"/>
-      <c r="S12" s="142"/>
-      <c r="T12" s="142">
+      <c r="Q12" s="170"/>
+      <c r="R12" s="170"/>
+      <c r="S12" s="170"/>
+      <c r="T12" s="170">
         <v>44.5</v>
       </c>
-      <c r="U12" s="142"/>
+      <c r="U12" s="170"/>
       <c r="AD12" s="117">
         <v>123.4</v>
       </c>
@@ -5843,27 +5843,27 @@
       </c>
     </row>
     <row r="13" spans="4:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="141" t="s">
+      <c r="D13" s="162" t="s">
         <v>311</v>
       </c>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
       <c r="H13" s="79" t="s">
         <v>312</v>
       </c>
       <c r="I13" s="83"/>
       <c r="O13" s="83"/>
-      <c r="P13" s="142" t="s">
+      <c r="P13" s="170" t="s">
         <v>316</v>
       </c>
-      <c r="Q13" s="142"/>
-      <c r="R13" s="142"/>
-      <c r="S13" s="142"/>
-      <c r="T13" s="142">
+      <c r="Q13" s="170"/>
+      <c r="R13" s="170"/>
+      <c r="S13" s="170"/>
+      <c r="T13" s="170">
         <v>44.5</v>
       </c>
-      <c r="U13" s="142"/>
+      <c r="U13" s="170"/>
       <c r="AC13" s="52"/>
       <c r="AD13" s="118">
         <v>123.4</v>
@@ -5873,51 +5873,51 @@
       </c>
     </row>
     <row r="14" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D14" s="141" t="s">
+      <c r="D14" s="162" t="s">
         <v>315</v>
       </c>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
       <c r="H14" s="80" t="str">
         <f>'&lt;zlight&gt;'!G18&amp;"."&amp;'&lt;zlight&gt;'!H18</f>
         <v>GC_HeadDevice.GC_HDGroup</v>
       </c>
       <c r="I14" s="83"/>
       <c r="O14" s="83"/>
-      <c r="P14" s="142" t="s">
+      <c r="P14" s="170" t="s">
         <v>318</v>
       </c>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="142"/>
-      <c r="S14" s="142"/>
-      <c r="T14" s="142">
+      <c r="Q14" s="170"/>
+      <c r="R14" s="170"/>
+      <c r="S14" s="170"/>
+      <c r="T14" s="170">
         <v>44.5</v>
       </c>
-      <c r="U14" s="142"/>
+      <c r="U14" s="170"/>
     </row>
     <row r="15" spans="4:45" x14ac:dyDescent="0.25">
-      <c r="D15" s="141" t="s">
+      <c r="D15" s="162" t="s">
         <v>317</v>
       </c>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
       <c r="H15" s="79">
         <v>77</v>
       </c>
       <c r="O15" s="102"/>
-      <c r="P15" s="143" t="s">
+      <c r="P15" s="176" t="s">
         <v>356</v>
       </c>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="143"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143" t="e">
+      <c r="Q15" s="176"/>
+      <c r="R15" s="176"/>
+      <c r="S15" s="176"/>
+      <c r="T15" s="176" t="e">
         <f ca="1">ROUNDUP((T6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*T8),2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U15" s="143"/>
+      <c r="U15" s="176"/>
     </row>
     <row r="18" spans="3:149" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
@@ -5969,8 +5969,8 @@
       <c r="CC21" s="11"/>
       <c r="CD21" s="79"/>
       <c r="CE21" s="79"/>
-      <c r="CF21" s="139"/>
-      <c r="CG21" s="140"/>
+      <c r="CF21" s="174"/>
+      <c r="CG21" s="175"/>
       <c r="CH21" s="99"/>
       <c r="CI21" s="99"/>
       <c r="CJ21" s="99"/>
@@ -5999,115 +5999,115 @@
       </c>
     </row>
     <row r="22" spans="3:149" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="154" t="s">
+      <c r="D22" s="156" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="158" t="s">
+      <c r="E22" s="160" t="s">
         <v>188</v>
       </c>
-      <c r="F22" s="160" t="s">
+      <c r="F22" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="G22" s="158" t="s">
+      <c r="G22" s="160" t="s">
         <v>190</v>
       </c>
-      <c r="H22" s="160" t="s">
+      <c r="H22" s="140" t="s">
         <v>191</v>
       </c>
-      <c r="I22" s="160" t="s">
+      <c r="I22" s="140" t="s">
         <v>192</v>
       </c>
-      <c r="J22" s="163" t="s">
+      <c r="J22" s="142" t="s">
         <v>327</v>
       </c>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="164" t="s">
+      <c r="K22" s="142"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="143" t="s">
         <v>332</v>
       </c>
-      <c r="O22" s="156" t="s">
+      <c r="O22" s="158" t="s">
         <v>125</v>
       </c>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="157"/>
-      <c r="S22" s="157"/>
-      <c r="T22" s="157"/>
-      <c r="U22" s="157"/>
-      <c r="V22" s="157"/>
-      <c r="W22" s="157"/>
-      <c r="X22" s="157"/>
-      <c r="Y22" s="157"/>
-      <c r="Z22" s="157"/>
-      <c r="AA22" s="168" t="s">
+      <c r="P22" s="159"/>
+      <c r="Q22" s="159"/>
+      <c r="R22" s="159"/>
+      <c r="S22" s="159"/>
+      <c r="T22" s="159"/>
+      <c r="U22" s="159"/>
+      <c r="V22" s="159"/>
+      <c r="W22" s="159"/>
+      <c r="X22" s="159"/>
+      <c r="Y22" s="159"/>
+      <c r="Z22" s="159"/>
+      <c r="AA22" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="AB22" s="169"/>
-      <c r="AC22" s="169"/>
-      <c r="AD22" s="169"/>
-      <c r="AE22" s="169"/>
-      <c r="AF22" s="169"/>
-      <c r="AG22" s="169"/>
-      <c r="AH22" s="169"/>
-      <c r="AI22" s="170"/>
-      <c r="AJ22" s="171" t="s">
+      <c r="AB22" s="148"/>
+      <c r="AC22" s="148"/>
+      <c r="AD22" s="148"/>
+      <c r="AE22" s="148"/>
+      <c r="AF22" s="148"/>
+      <c r="AG22" s="148"/>
+      <c r="AH22" s="148"/>
+      <c r="AI22" s="149"/>
+      <c r="AJ22" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="AK22" s="172"/>
-      <c r="AL22" s="172"/>
-      <c r="AM22" s="172"/>
-      <c r="AN22" s="172"/>
-      <c r="AO22" s="172"/>
-      <c r="AP22" s="172"/>
-      <c r="AQ22" s="172"/>
-      <c r="AR22" s="172"/>
-      <c r="AS22" s="172"/>
-      <c r="AT22" s="172"/>
-      <c r="AU22" s="172"/>
-      <c r="AV22" s="172"/>
-      <c r="AW22" s="173"/>
-      <c r="AX22" s="168" t="s">
+      <c r="AK22" s="151"/>
+      <c r="AL22" s="151"/>
+      <c r="AM22" s="151"/>
+      <c r="AN22" s="151"/>
+      <c r="AO22" s="151"/>
+      <c r="AP22" s="151"/>
+      <c r="AQ22" s="151"/>
+      <c r="AR22" s="151"/>
+      <c r="AS22" s="151"/>
+      <c r="AT22" s="151"/>
+      <c r="AU22" s="151"/>
+      <c r="AV22" s="151"/>
+      <c r="AW22" s="152"/>
+      <c r="AX22" s="147" t="s">
         <v>220</v>
       </c>
-      <c r="AY22" s="169"/>
-      <c r="AZ22" s="169"/>
-      <c r="BA22" s="169"/>
-      <c r="BB22" s="169"/>
-      <c r="BC22" s="169"/>
-      <c r="BD22" s="169"/>
-      <c r="BE22" s="169"/>
-      <c r="BF22" s="169"/>
-      <c r="BG22" s="169"/>
-      <c r="BH22" s="169"/>
-      <c r="BI22" s="169"/>
-      <c r="BJ22" s="169"/>
-      <c r="BK22" s="169"/>
-      <c r="BL22" s="169"/>
-      <c r="BM22" s="169"/>
-      <c r="BN22" s="170"/>
-      <c r="BO22" s="174" t="s">
+      <c r="AY22" s="148"/>
+      <c r="AZ22" s="148"/>
+      <c r="BA22" s="148"/>
+      <c r="BB22" s="148"/>
+      <c r="BC22" s="148"/>
+      <c r="BD22" s="148"/>
+      <c r="BE22" s="148"/>
+      <c r="BF22" s="148"/>
+      <c r="BG22" s="148"/>
+      <c r="BH22" s="148"/>
+      <c r="BI22" s="148"/>
+      <c r="BJ22" s="148"/>
+      <c r="BK22" s="148"/>
+      <c r="BL22" s="148"/>
+      <c r="BM22" s="148"/>
+      <c r="BN22" s="149"/>
+      <c r="BO22" s="153" t="s">
         <v>228</v>
       </c>
-      <c r="BP22" s="175"/>
-      <c r="BQ22" s="175"/>
-      <c r="BR22" s="175"/>
-      <c r="BS22" s="175"/>
-      <c r="BT22" s="175"/>
-      <c r="BU22" s="176"/>
-      <c r="BV22" s="166" t="s">
+      <c r="BP22" s="154"/>
+      <c r="BQ22" s="154"/>
+      <c r="BR22" s="154"/>
+      <c r="BS22" s="154"/>
+      <c r="BT22" s="154"/>
+      <c r="BU22" s="155"/>
+      <c r="BV22" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="BW22" s="167"/>
-      <c r="BX22" s="167"/>
-      <c r="BY22" s="167"/>
-      <c r="BZ22" s="167"/>
-      <c r="CA22" s="167"/>
-      <c r="CB22" s="167"/>
-      <c r="CC22" s="167"/>
-      <c r="CD22" s="167"/>
-      <c r="CE22" s="167"/>
-      <c r="CF22" s="167"/>
-      <c r="CG22" s="167"/>
+      <c r="BW22" s="146"/>
+      <c r="BX22" s="146"/>
+      <c r="BY22" s="146"/>
+      <c r="BZ22" s="146"/>
+      <c r="CA22" s="146"/>
+      <c r="CB22" s="146"/>
+      <c r="CC22" s="146"/>
+      <c r="CD22" s="146"/>
+      <c r="CE22" s="146"/>
+      <c r="CF22" s="146"/>
+      <c r="CG22" s="146"/>
       <c r="CH22" s="89"/>
       <c r="CI22" s="91"/>
       <c r="CJ22" s="95"/>
@@ -6185,12 +6185,12 @@
       </c>
     </row>
     <row r="23" spans="3:149" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="155"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
       <c r="J23" s="85" t="s">
         <v>328</v>
       </c>
@@ -6200,7 +6200,7 @@
       <c r="L23" s="85" t="s">
         <v>330</v>
       </c>
-      <c r="M23" s="165"/>
+      <c r="M23" s="144"/>
       <c r="O23" s="56" t="s">
         <v>123</v>
       </c>
@@ -6378,18 +6378,18 @@
       <c r="BU23" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="BV23" s="166"/>
-      <c r="BW23" s="167"/>
-      <c r="BX23" s="167"/>
-      <c r="BY23" s="167"/>
-      <c r="BZ23" s="167"/>
-      <c r="CA23" s="167"/>
-      <c r="CB23" s="167"/>
-      <c r="CC23" s="167"/>
-      <c r="CD23" s="167"/>
-      <c r="CE23" s="167"/>
-      <c r="CF23" s="167"/>
-      <c r="CG23" s="167"/>
+      <c r="BV23" s="145"/>
+      <c r="BW23" s="146"/>
+      <c r="BX23" s="146"/>
+      <c r="BY23" s="146"/>
+      <c r="BZ23" s="146"/>
+      <c r="CA23" s="146"/>
+      <c r="CB23" s="146"/>
+      <c r="CC23" s="146"/>
+      <c r="CD23" s="146"/>
+      <c r="CE23" s="146"/>
+      <c r="CF23" s="146"/>
+      <c r="CG23" s="146"/>
       <c r="CH23" s="89"/>
       <c r="CI23" s="91"/>
       <c r="CJ23" s="95"/>
@@ -6398,28 +6398,28 @@
       <c r="CO23" s="1">
         <v>35</v>
       </c>
-      <c r="EB23" s="162" t="s">
+      <c r="EB23" s="139" t="s">
         <v>363</v>
       </c>
-      <c r="EC23" s="162"/>
-      <c r="ED23" s="162"/>
-      <c r="EE23" s="162"/>
-      <c r="EF23" s="162"/>
-      <c r="EG23" s="162"/>
-      <c r="EH23" s="162"/>
-      <c r="EI23" s="162"/>
-      <c r="EJ23" s="162"/>
-      <c r="EK23" s="162" t="s">
+      <c r="EC23" s="139"/>
+      <c r="ED23" s="139"/>
+      <c r="EE23" s="139"/>
+      <c r="EF23" s="139"/>
+      <c r="EG23" s="139"/>
+      <c r="EH23" s="139"/>
+      <c r="EI23" s="139"/>
+      <c r="EJ23" s="139"/>
+      <c r="EK23" s="139" t="s">
         <v>367</v>
       </c>
-      <c r="EL23" s="162"/>
-      <c r="EM23" s="162"/>
-      <c r="EN23" s="162"/>
-      <c r="EO23" s="162"/>
-      <c r="EP23" s="162"/>
-      <c r="EQ23" s="162"/>
-      <c r="ER23" s="162"/>
-      <c r="ES23" s="162"/>
+      <c r="EL23" s="139"/>
+      <c r="EM23" s="139"/>
+      <c r="EN23" s="139"/>
+      <c r="EO23" s="139"/>
+      <c r="EP23" s="139"/>
+      <c r="EQ23" s="139"/>
+      <c r="ER23" s="139"/>
+      <c r="ES23" s="139"/>
     </row>
     <row r="24" spans="3:149" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
@@ -6964,45 +6964,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="EB23:EJ23"/>
-    <mergeCell ref="EK23:ES23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="BV22:CG23"/>
-    <mergeCell ref="AA22:AI22"/>
-    <mergeCell ref="AJ22:AW22"/>
-    <mergeCell ref="BO22:BU22"/>
-    <mergeCell ref="AX22:BN22"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="O22:Z22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="T9:U10"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D10:G10"/>
     <mergeCell ref="CF21:CG21"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="P14:S14"/>
@@ -7014,6 +6975,45 @@
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="P15:S15"/>
     <mergeCell ref="T15:U15"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:U10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="O22:Z22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="EB23:EJ23"/>
+    <mergeCell ref="EK23:ES23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="BV22:CG23"/>
+    <mergeCell ref="AA22:AI22"/>
+    <mergeCell ref="AJ22:AW22"/>
+    <mergeCell ref="BO22:BU22"/>
+    <mergeCell ref="AX22:BN22"/>
   </mergeCells>
   <conditionalFormatting sqref="P24">
     <cfRule type="expression" dxfId="102" priority="332">
